--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA98FA-444A-4D5F-A2A5-929266A6E96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960A9336-9F81-43F6-A437-2D2BD5C64067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1635" windowWidth="24090" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD EMPN" sheetId="5" r:id="rId2"/>
     <sheet name="Filtered OECD Data" sheetId="6" r:id="rId3"/>
-    <sheet name="BEbIC" sheetId="2" r:id="rId4"/>
+    <sheet name="OECD Chem Pharma Split" sheetId="7" r:id="rId4"/>
+    <sheet name="BEbIC" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,8 +36,616 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{60026FFF-B228-4252-851F-D1336B86E563}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{791ECF8A-67DF-4531-A708-64DA3B2E27E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{DCB0BE1F-566E-4349-8D21-244E9FF0F603}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{CD343A8D-773A-4F7B-A1B8-0BBB0782223C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{95CE7F6B-BAEB-4DE1-B611-E452603D0913}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{19D01A1C-8C3F-4D29-83A6-61CAD0EEC56A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{0C3E8350-6E11-4019-902D-06536500959B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{C4AC38DB-24DB-4686-8750-14C53B81C8DF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{FBD33F53-90FB-4580-869E-31B3AAD0BA04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{4BE01408-1CAD-480C-9E2A-934822FC6F04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{A1007AAF-E3BC-4847-8409-97EA9183DEA2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{A7D26341-59F3-4A6F-9F23-7394C7B84248}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{CA965E2E-235A-4A04-894A-D85778DCF534}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{DF285CA3-9002-4CEF-93BB-2E087868F2EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{A50E0B7B-B802-4402-B817-30261213D6D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{0066CF30-3776-4D9A-9722-04773565DBEE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{8E3AE25B-6AF3-4585-AC3B-55EE6042FACA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{8D75B42C-E0E2-4AD3-962B-1763CF8F8A0A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{4E2C4EAA-7E40-42EE-9E12-D694D8CF3C2F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{982CABC7-05BF-461B-A857-00AC61CBDEF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{20688301-9A09-4C24-9DB3-8607C5C16E90}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{C1AF7658-7979-4E02-A1CE-184D637D0B3A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{521E4B7B-1EB3-4C2F-B5A4-C279AB9FCF00}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{22217B3A-BD61-4C4D-B85C-5199D62B1807}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{0C8F7A19-DF31-43C6-A125-7C732E7CFCBC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{0EB586FF-D7BA-4F4C-B8B2-C10E1D89BA6D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{D43FB285-30C1-4E38-8DB9-08233ED22053}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{A9F31F3F-6FEF-4CEC-8E33-574E016F23ED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{0B0E6A90-0744-47B8-9630-33D38842E881}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{1A6037DC-EE49-4C84-A7C3-7990547B5E2D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{4D53DFE6-CD27-4632-A6D7-A55340250BB0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{76D38DB7-00A0-463F-B2A9-87B4C537F82C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{0B1F506A-1A81-41BA-9240-BF6C0E4E9AC2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{D8A03044-34C5-4925-9805-A78F743360A4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{D857917F-D9C7-4485-AAE9-DF0454FD5E62}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{F9FC53D8-892A-4DB3-8B96-298CB2D0F819}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{616B7191-B974-43DF-B806-E48CF27E9608}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{84FC31D1-6DBD-4F3C-8AA4-D57689CB31F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{FD616039-599F-4348-AEEA-0AE5F3D4E3DC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{D3C55829-C33E-4D33-B83D-55D8D36C58E7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{EC94BE6F-C94E-444B-93D4-F0A1D69985B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{B27EE6A0-8E3E-4EAE-93CB-B3DF9C99E8DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{044E7143-AE85-4E22-BDF2-0CA710531C38}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0" xr:uid="{B484CB69-B6D3-4D7A-8C63-57F84CB29965}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0" xr:uid="{0C080616-D25B-4EC0-91E9-7D4425E299FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0" xr:uid="{0167AEEF-21CE-40F4-83A7-7F9D1526AB6B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="229">
   <si>
     <t>Source:</t>
   </si>
@@ -174,9 +783,6 @@
   </si>
   <si>
     <t>ISIC 97T98</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
   </si>
   <si>
     <t>Trade in Employment (TiM) 2018 Edition (ISIC Rev. 4)</t>
@@ -571,6 +1177,162 @@
   <si>
     <t>BEbIC BAU Employment by ISIC Code</t>
   </si>
+  <si>
+    <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>EMPN: Number of persons engaged (total employment)</t>
+  </si>
+  <si>
+    <t>D20: Chemicals and chemical products [CE]</t>
+  </si>
+  <si>
+    <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+  </si>
+  <si>
+    <t>ISIC 20</t>
+  </si>
+  <si>
+    <t>ISIC 21</t>
+  </si>
+  <si>
+    <t>Chemicals and Pharmaceuticals Industries</t>
+  </si>
+  <si>
+    <t>STAN Database for Structural Analysis</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+  </si>
+  <si>
+    <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+  </si>
+  <si>
+    <t>PROD: Production (gross output), current prices</t>
+  </si>
+  <si>
+    <t>VALU: Value added, current prices</t>
+  </si>
+  <si>
+    <t>LABR: Labour costs (compensation of employees)</t>
+  </si>
+  <si>
+    <t>GOPS: Gross operating surplus and mixed income</t>
+  </si>
+  <si>
+    <t>OTXS: Other taxes less subsidies on production</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>c:</t>
+  </si>
+  <si>
+    <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+  </si>
+  <si>
+    <t>Most Industries</t>
+  </si>
+  <si>
+    <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+  </si>
 </sst>
 </file>
 
@@ -579,7 +1341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +1435,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +1476,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +1657,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -919,20 +1699,68 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -961,23 +1789,41 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1261,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,63 +2118,109 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" s="31" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2018</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>47</v>
+      <c r="B5" s="2">
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>48</v>
+      <c r="B7" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>174</v>
+      <c r="B10" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>175</v>
+      <c r="B11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>176</v>
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{2276F9C6-DAE6-41B4-8E7B-D6FA23893E00}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{A055FF8F-9626-4BBA-BE7E-E5CE0C40568B}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{3B17179A-AF91-4A82-B973-8C6C0192EAE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1362,636 +2254,636 @@
     </row>
     <row r="2" spans="1:57" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="21"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="50"/>
+      <c r="BC3" s="50"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="51"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="24"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="42"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="24"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="42"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23"/>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="23"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="24"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="41"/>
+      <c r="BE6" s="42"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="35"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="36"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="33"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="31" t="s">
+      <c r="E8" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="F8" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="31" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="AF8" s="31" t="s">
+      <c r="J8" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="AG8" s="31" t="s">
+      <c r="AF8" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="AH8" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="31" t="s">
+      <c r="AG8" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="AT8" s="34" t="s">
+      <c r="AH8" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="31" t="s">
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="BB8" s="31" t="s">
+      <c r="AT8" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="BC8" s="31" t="s">
+      <c r="BB8" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="BD8" s="31" t="s">
+      <c r="BC8" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="BE8" s="31" t="s">
+      <c r="BD8" s="34" t="s">
         <v>153</v>
+      </c>
+      <c r="BE8" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="G9" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31" t="s">
+      <c r="H9" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="K9" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="31" t="s">
+      <c r="L9" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="M9" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="31" t="s">
+      <c r="N9" s="33"/>
+      <c r="O9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="U9" s="34" t="s">
+      <c r="P9" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="31" t="s">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="X9" s="34" t="s">
+      <c r="U9" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="31" t="s">
+      <c r="V9" s="33"/>
+      <c r="W9" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AA9" s="31" t="s">
+      <c r="X9" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="31" t="s">
+      <c r="AA9" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="31" t="s">
+      <c r="AB9" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AI9" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="31" t="s">
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AM9" s="34" t="s">
+      <c r="AI9" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="31" t="s">
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AQ9" s="31" t="s">
+      <c r="AM9" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="AR9" s="31" t="s">
+      <c r="AQ9" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="31" t="s">
+      <c r="AR9" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="AU9" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="31" t="s">
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AY9" s="34" t="s">
+      <c r="AU9" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY9" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
     </row>
     <row r="10" spans="1:57" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="33"/>
+        <v>131</v>
+      </c>
+      <c r="O10" s="35"/>
       <c r="P10" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="T10" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="T10" s="35"/>
       <c r="U10" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="W10" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="W10" s="35"/>
       <c r="X10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
       <c r="AB10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
       <c r="AI10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL10" s="33"/>
+        <v>118</v>
+      </c>
+      <c r="AL10" s="35"/>
       <c r="AM10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
+      <c r="AS10" s="35"/>
+      <c r="AT10" s="35"/>
       <c r="AU10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AV10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX10" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="AX10" s="35"/>
       <c r="AY10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="BA10" s="35"/>
+      <c r="BB10" s="35"/>
+      <c r="BC10" s="35"/>
+      <c r="BD10" s="35"/>
+      <c r="BE10" s="35"/>
     </row>
     <row r="11" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2168,7 +3060,7 @@
     </row>
     <row r="12" spans="1:57" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -2341,7 +3233,7 @@
     </row>
     <row r="13" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -2514,7 +3406,7 @@
     </row>
     <row r="14" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -2687,7 +3579,7 @@
     </row>
     <row r="15" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -2860,7 +3752,7 @@
     </row>
     <row r="16" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -3033,7 +3925,7 @@
     </row>
     <row r="17" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>9</v>
@@ -3206,7 +4098,7 @@
     </row>
     <row r="18" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>9</v>
@@ -3379,7 +4271,7 @@
     </row>
     <row r="19" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>9</v>
@@ -3552,7 +4444,7 @@
     </row>
     <row r="20" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>9</v>
@@ -3725,7 +4617,7 @@
     </row>
     <row r="21" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -3898,7 +4790,7 @@
     </row>
     <row r="22" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>9</v>
@@ -4071,7 +4963,7 @@
     </row>
     <row r="23" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>9</v>
@@ -4244,7 +5136,7 @@
     </row>
     <row r="24" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>9</v>
@@ -4417,7 +5309,7 @@
     </row>
     <row r="25" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>9</v>
@@ -4590,7 +5482,7 @@
     </row>
     <row r="26" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -4763,7 +5655,7 @@
     </row>
     <row r="27" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>9</v>
@@ -4936,7 +5828,7 @@
     </row>
     <row r="28" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -5109,7 +6001,7 @@
     </row>
     <row r="29" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>9</v>
@@ -5282,7 +6174,7 @@
     </row>
     <row r="30" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>9</v>
@@ -5455,7 +6347,7 @@
     </row>
     <row r="31" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -5628,7 +6520,7 @@
     </row>
     <row r="32" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>9</v>
@@ -5801,7 +6693,7 @@
     </row>
     <row r="33" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>9</v>
@@ -5974,7 +6866,7 @@
     </row>
     <row r="34" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>9</v>
@@ -6147,7 +7039,7 @@
     </row>
     <row r="35" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>9</v>
@@ -6320,7 +7212,7 @@
     </row>
     <row r="36" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>9</v>
@@ -6493,7 +7385,7 @@
     </row>
     <row r="37" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>9</v>
@@ -6666,7 +7558,7 @@
     </row>
     <row r="38" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -6839,7 +7731,7 @@
     </row>
     <row r="39" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>9</v>
@@ -7012,7 +7904,7 @@
     </row>
     <row r="40" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>9</v>
@@ -7185,7 +8077,7 @@
     </row>
     <row r="41" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -7358,7 +8250,7 @@
     </row>
     <row r="42" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>9</v>
@@ -7531,7 +8423,7 @@
     </row>
     <row r="43" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>9</v>
@@ -7704,7 +8596,7 @@
     </row>
     <row r="44" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -7877,7 +8769,7 @@
     </row>
     <row r="45" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>9</v>
@@ -8050,7 +8942,7 @@
     </row>
     <row r="46" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -8223,7 +9115,7 @@
     </row>
     <row r="47" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>9</v>
@@ -8569,7 +9461,7 @@
     </row>
     <row r="49" spans="1:57" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>9</v>
@@ -8742,7 +9634,7 @@
     </row>
     <row r="50" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>9</v>
@@ -8915,7 +9807,7 @@
     </row>
     <row r="51" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>9</v>
@@ -9088,7 +9980,7 @@
     </row>
     <row r="52" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -9261,7 +10153,7 @@
     </row>
     <row r="53" spans="1:57" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>9</v>
@@ -9434,7 +10326,7 @@
     </row>
     <row r="54" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>9</v>
@@ -9607,7 +10499,7 @@
     </row>
     <row r="55" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>9</v>
@@ -9780,7 +10672,7 @@
     </row>
     <row r="56" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>9</v>
@@ -9953,7 +10845,7 @@
     </row>
     <row r="57" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>9</v>
@@ -10126,7 +11018,7 @@
     </row>
     <row r="58" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>9</v>
@@ -10299,7 +11191,7 @@
     </row>
     <row r="59" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>9</v>
@@ -10472,7 +11364,7 @@
     </row>
     <row r="60" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>9</v>
@@ -10645,7 +11537,7 @@
     </row>
     <row r="61" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>9</v>
@@ -10818,7 +11710,7 @@
     </row>
     <row r="62" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>9</v>
@@ -10991,7 +11883,7 @@
     </row>
     <row r="63" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>9</v>
@@ -11164,7 +12056,7 @@
     </row>
     <row r="64" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>9</v>
@@ -11337,7 +12229,7 @@
     </row>
     <row r="65" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>9</v>
@@ -11510,7 +12402,7 @@
     </row>
     <row r="66" spans="1:57" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>9</v>
@@ -11683,7 +12575,7 @@
     </row>
     <row r="67" spans="1:57" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>9</v>
@@ -11856,7 +12748,7 @@
     </row>
     <row r="68" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>9</v>
@@ -12029,7 +12921,7 @@
     </row>
     <row r="69" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>9</v>
@@ -12202,7 +13094,7 @@
     </row>
     <row r="70" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>9</v>
@@ -12375,7 +13267,7 @@
     </row>
     <row r="71" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>9</v>
@@ -12548,7 +13440,7 @@
     </row>
     <row r="72" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>9</v>
@@ -12721,7 +13613,7 @@
     </row>
     <row r="73" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>9</v>
@@ -12894,16 +13786,45 @@
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:BE6"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:BE7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:AD8"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AR8"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AT8:AZ8"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="BB8:BB10"/>
     <mergeCell ref="BC8:BC10"/>
     <mergeCell ref="BD8:BD10"/>
@@ -12920,40 +13841,11 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:BE6"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:BE7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:AD8"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AH8:AR8"/>
-    <mergeCell ref="AS8:AS10"/>
-    <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2019_MAIN&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3FEC89F7-2DF7-491F-AA22-C2D56987BE46}"/>
@@ -22404,23 +23296,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC32989-1F12-47DE-BC5A-EFCFF266ED62}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="e">
+        <f ca="1">DotStatQuery(B1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="23">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="23">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="23">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="23">
+        <v>151</v>
+      </c>
+      <c r="L7" s="23">
+        <v>48</v>
+      </c>
+      <c r="M7" s="23">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="23">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="24">
+        <v>4268.8580000000002</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2190.2440000000001</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1169.6790000000001</v>
+      </c>
+      <c r="H8" s="24">
+        <v>999.32500000000005</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1540.5920000000001</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1143.9290000000001</v>
+      </c>
+      <c r="K8" s="24">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="L8" s="24">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="24">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="24">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="23">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="23">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2219.6999999999998</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="23">
+        <v>-89.4</v>
+      </c>
+      <c r="L9" s="23">
+        <v>-84.1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>44</v>
+      </c>
+      <c r="N9" s="23">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1176806.6969999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1262313.6129999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>414529.82299999997</v>
+      </c>
+      <c r="G10" s="24">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="24">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="24">
+        <v>825702.42099999997</v>
+      </c>
+      <c r="J10" s="24">
+        <v>207059.06099999999</v>
+      </c>
+      <c r="K10" s="24">
+        <v>25993.348999999998</v>
+      </c>
+      <c r="L10" s="24">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="23">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="23">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="23">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="23">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="23">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="23">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="23">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23">
+        <v>30.922000000000001</v>
+      </c>
+      <c r="N11" s="23">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="24">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="24">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="24">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="24">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="24">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="24">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="24">
+        <v>85</v>
+      </c>
+      <c r="L12" s="24">
+        <v>98</v>
+      </c>
+      <c r="M12" s="24">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="N12" s="24">
+        <v>22.722000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="23">
+        <v>56</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="24">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="24">
+        <v>775</v>
+      </c>
+      <c r="H14" s="24">
+        <v>264</v>
+      </c>
+      <c r="I14" s="24">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="24">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="24">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="24">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="24">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="23">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="23">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="23">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="23">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="23">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="23">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="23">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="23">
+        <v>772</v>
+      </c>
+      <c r="L15" s="23">
+        <v>341</v>
+      </c>
+      <c r="M15" s="23">
+        <v>111</v>
+      </c>
+      <c r="N15" s="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="24">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="24">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="24">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="24">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="24">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="24">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="24">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="24">
+        <v>178</v>
+      </c>
+      <c r="L16" s="24">
+        <v>66</v>
+      </c>
+      <c r="M16" s="24">
+        <v>348</v>
+      </c>
+      <c r="N16" s="24">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="23">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="23">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="23">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="23">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="23">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="23">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="23">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="23">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="23">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="23">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="23">
+        <v>20.789000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="24">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="24">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="24">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="24">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="24">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="24">
+        <v>4864.1000000000004</v>
+      </c>
+      <c r="J18" s="24">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="24">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="24">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="24">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="24">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="23">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="23">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="23">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="23">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" s="23">
+        <v>328</v>
+      </c>
+      <c r="N19" s="23">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="24">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="24">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="24">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="24">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="24">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="24">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="24">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="24">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="24">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="24">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="24">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="23">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="23">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="E21" s="23">
+        <v>61.082999999999998</v>
+      </c>
+      <c r="F21" s="23">
+        <v>78.703999999999994</v>
+      </c>
+      <c r="G21" s="23">
+        <v>33.743000000000002</v>
+      </c>
+      <c r="H21" s="23">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="I21" s="23">
+        <v>26.463999999999999</v>
+      </c>
+      <c r="J21" s="23">
+        <v>36.499000000000002</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="23">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M21" s="23">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="N21" s="23">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="24">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="24">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="24">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="24">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="24">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="K22" s="24">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="24">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="23">
+        <v>720647.26100000006</v>
+      </c>
+      <c r="D23" s="23">
+        <v>275739.48700000002</v>
+      </c>
+      <c r="E23" s="23">
+        <v>210925.78400000001</v>
+      </c>
+      <c r="F23" s="23">
+        <v>65884.478000000003</v>
+      </c>
+      <c r="G23" s="23">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="23">
+        <v>25493.957999999999</v>
+      </c>
+      <c r="I23" s="23">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="23">
+        <v>39511.928999999996</v>
+      </c>
+      <c r="K23" s="23">
+        <v>2228.2539999999999</v>
+      </c>
+      <c r="L23" s="23">
+        <v>878.59100000000001</v>
+      </c>
+      <c r="M23" s="23">
+        <v>155.35499999999999</v>
+      </c>
+      <c r="N23" s="23">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="24">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="24">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="24">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="24">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="24">
+        <v>902</v>
+      </c>
+      <c r="I24" s="24">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="24">
+        <v>15</v>
+      </c>
+      <c r="L24" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="24">
+        <v>43</v>
+      </c>
+      <c r="N24" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="23">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="23">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="23">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="23">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="23">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="23">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="23">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="23">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="23">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="23">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N25" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4356.4840000000004</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1175.9290000000001</v>
+      </c>
+      <c r="E26" s="24">
+        <v>878.67700000000002</v>
+      </c>
+      <c r="F26" s="24">
+        <v>505.16399999999999</v>
+      </c>
+      <c r="G26" s="24">
+        <v>356.76100000000002</v>
+      </c>
+      <c r="H26" s="24">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="24">
+        <v>503.59199999999998</v>
+      </c>
+      <c r="J26" s="24">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="24">
+        <v>18.324000000000002</v>
+      </c>
+      <c r="L26" s="24">
+        <v>75.834999999999994</v>
+      </c>
+      <c r="M26" s="24">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="24">
+        <v>6.2270000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="23">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="23">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="23">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="23">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H27" s="23">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="23">
+        <v>492.09699999999998</v>
+      </c>
+      <c r="J27" s="23">
+        <v>9.3350000000000009</v>
+      </c>
+      <c r="K27" s="23">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="L27" s="23">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>8.5920000000000005</v>
+      </c>
+      <c r="N27" s="23">
+        <v>2.2280000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="24">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="24">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="24">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="24">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="24">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="24">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="24">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="24">
+        <v>50</v>
+      </c>
+      <c r="L28" s="24">
+        <v>7</v>
+      </c>
+      <c r="M28" s="24">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="24">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="23">
+        <v>23031.416700000002</v>
+      </c>
+      <c r="D29" s="23">
+        <v>80032.204400000002</v>
+      </c>
+      <c r="E29" s="23">
+        <v>7470.1342000000004</v>
+      </c>
+      <c r="F29" s="23">
+        <v>28686.775900000001</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="23">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="N29" s="23">
+        <v>46.713000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="24">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="24">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="24">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="24">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="24">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="24">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="24">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="24">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="24">
+        <v>59</v>
+      </c>
+      <c r="L30" s="24">
+        <v>13</v>
+      </c>
+      <c r="M30" s="24">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="24">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="23">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="23">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="23">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="23">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="23">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="23">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="23">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="23">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="23">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="23">
+        <v>534</v>
+      </c>
+      <c r="N31" s="23">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2EB1A024-48F8-48DD-B286-3E1A77A17072}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{608144E7-91F0-4EA4-A1DD-E7E5BFD3F789}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{72C821D1-84D7-45F6-9100-2D8A8D3C1122}"/>
+    <hyperlink ref="G4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{076D7497-6282-407C-BB5D-A56571A2EB04}"/>
+    <hyperlink ref="I4" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A10FB04F-5D0A-42D4-8B02-878685B9A13A}"/>
+    <hyperlink ref="K4" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A27FF240-F70C-4835-B2CC-C23027B4DBA1}"/>
+    <hyperlink ref="M4" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C8EDD51C-1939-4A9B-958F-C0751A8BC2C0}"/>
+    <hyperlink ref="A7" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DF5FD6B7-D9D1-4A0E-B498-0F34531E883A}"/>
+    <hyperlink ref="A8" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{540F7629-AA37-4B5A-AA66-F894A6245574}"/>
+    <hyperlink ref="A9" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7D56654C-6A6D-42DB-BDE3-2188033FF968}"/>
+    <hyperlink ref="A10" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{33A98D65-2BEB-4FFB-8B14-F29D0F2EC955}"/>
+    <hyperlink ref="A11" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{59D1A4F6-4AA0-4ABF-9C15-C10EA5F96A7C}"/>
+    <hyperlink ref="A12" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F8B8ABCB-446B-404C-B9A4-584DBFFB2E80}"/>
+    <hyperlink ref="A13" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{89011756-0707-4A3F-A73D-C8EEF77BA262}"/>
+    <hyperlink ref="A14" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D97559DF-8407-47A9-BC84-6260ABC6C750}"/>
+    <hyperlink ref="A15" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{754C8769-BE06-477E-A2BC-CD644CE52755}"/>
+    <hyperlink ref="A16" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D13C9CCA-F430-4EB4-B161-C58C70D230EC}"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{59E09580-B1FD-4BA0-9D3C-AF4ED6F0CAE0}"/>
+    <hyperlink ref="A18" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E5D4B9FC-F85D-49F9-B1CE-3EABE1BCB29A}"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3A6FE75A-09F3-401C-86ED-1A0D1A1408B2}"/>
+    <hyperlink ref="A20" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{CA082E48-A609-427E-B409-A56AF659CE03}"/>
+    <hyperlink ref="A21" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3765E776-CF0A-42D5-A081-2EFFCC1CAD1A}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FA7DF4AA-AF30-4AB7-A06E-DF8F32F84E90}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A5F7EABD-60B7-4DE3-864C-AB1A41F636FC}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B3980D2B-D68A-45A6-AAC3-8B525C51EA65}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{132945DD-DFC3-441F-90F4-FF2AC3E365E4}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{19F7BE93-1560-4547-A460-3EBBC9AA82DE}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2F975444-3937-409D-88CB-1D63D71CF8A6}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F133FE5A-0DE3-4674-8092-CEE71FD62670}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B5FA87D8-55B1-4537-B3A4-67E66580213E}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A75A79C7-FF3A-4531-9A6F-75446466DA96}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" xr:uid="{3B1D37E8-D92A-452C-A208-59480D1FB724}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId33"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" customWidth="1"/>
+    <col min="2" max="38" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -22449,89 +24684,92 @@
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Filtered OECD Data'!A38</f>
         <v>USA: United States</v>
@@ -22572,111 +24810,115 @@
         <f>'Filtered OECD Data'!J38*1000</f>
         <v>111000</v>
       </c>
-      <c r="K2">
-        <f>'Filtered OECD Data'!K38*1000</f>
-        <v>820000</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="30">
+        <f>'Filtered OECD Data'!K38*1000*('OECD Chem Pharma Split'!M$31/SUM('OECD Chem Pharma Split'!$M$31:$N$31))</f>
+        <v>534000</v>
+      </c>
+      <c r="L2" s="30">
+        <f>'Filtered OECD Data'!K38*1000*('OECD Chem Pharma Split'!N$31/SUM('OECD Chem Pharma Split'!$M$31:$N$31))</f>
+        <v>286000</v>
+      </c>
+      <c r="M2">
         <f>'Filtered OECD Data'!L38*1000</f>
         <v>690000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f>'Filtered OECD Data'!M38*1000</f>
         <v>412000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f>'Filtered OECD Data'!N38*1000</f>
         <v>395000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>'Filtered OECD Data'!O38*1000</f>
         <v>1483000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f>'Filtered OECD Data'!P38*1000</f>
         <v>1058000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f>'Filtered OECD Data'!Q38*1000</f>
         <v>382000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f>'Filtered OECD Data'!R38*1000</f>
         <v>1126000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f>'Filtered OECD Data'!S38*1000</f>
         <v>922000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <f>'Filtered OECD Data'!T38*1000</f>
         <v>695000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <f>'Filtered OECD Data'!U38*1000</f>
         <v>1355500</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f>'Filtered OECD Data'!V38*1000</f>
         <v>975000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <f>'Filtered OECD Data'!W38*1000</f>
         <v>8240000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <f>'Filtered OECD Data'!X38*1000</f>
         <v>23893300</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <f>'Filtered OECD Data'!Y38*1000</f>
         <v>5988000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <f>'Filtered OECD Data'!Z38*1000</f>
         <v>13295000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <f>'Filtered OECD Data'!AA38*1000</f>
         <v>1686900</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <f>'Filtered OECD Data'!AB38*1000</f>
         <v>823100</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <f>'Filtered OECD Data'!AC38*1000</f>
         <v>2455000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <f>'Filtered OECD Data'!AD38*1000</f>
         <v>6300000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <f>'Filtered OECD Data'!AE38*1000</f>
         <v>1958000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <f>'Filtered OECD Data'!AF38*1000</f>
         <v>19863000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <f>'Filtered OECD Data'!AG38*1000</f>
         <v>13365000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <f>'Filtered OECD Data'!AH38*1000</f>
         <v>14114000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <f>'Filtered OECD Data'!AI38*1000</f>
         <v>19522000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <f>'Filtered OECD Data'!AJ38*1000</f>
         <v>8780200</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <f>'Filtered OECD Data'!AK38*1000</f>
         <v>329100</v>
       </c>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\BEbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC9CF5C-4F39-4E99-9987-65EF25A6079D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006B8A5-293D-4831-ABA7-F714EA858F2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="60" windowWidth="23820" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="1155" windowWidth="31395" windowHeight="22020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1200">
   <si>
     <t>Source:</t>
   </si>
@@ -3631,6 +3631,12 @@
   </si>
   <si>
     <t>help with some of these splits, such as chemicals (ISIC 20) and pharmaceuticals (ISIC 21),</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
   </si>
 </sst>
 </file>
@@ -4092,7 +4098,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4146,7 +4152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4179,17 +4184,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4202,49 +4196,42 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4273,31 +4260,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4584,7 +4569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4680,17 +4665,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="56" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="56" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="56" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4802,548 +4787,548 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="80"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="71"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="64"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="71"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="64"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="70"/>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="71"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="64"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="62"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="75"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="75"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="76"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="63" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="63" t="s">
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="63" t="s">
+      <c r="AF8" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="AG8" s="63" t="s">
+      <c r="AG8" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="61" t="s">
+      <c r="AH8" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="63" t="s">
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="AT8" s="61" t="s">
+      <c r="AT8" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="63" t="s">
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="BB8" s="63" t="s">
+      <c r="BB8" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="BC8" s="63" t="s">
+      <c r="BC8" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="BD8" s="63" t="s">
+      <c r="BD8" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="BE8" s="63" t="s">
+      <c r="BE8" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="63" t="s">
+      <c r="I9" s="72"/>
+      <c r="J9" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63" t="s">
+      <c r="N9" s="76"/>
+      <c r="O9" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63" t="s">
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="U9" s="61" t="s">
+      <c r="U9" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="V9" s="62"/>
-      <c r="W9" s="63" t="s">
+      <c r="V9" s="76"/>
+      <c r="W9" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="X9" s="61" t="s">
+      <c r="X9" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="63" t="s">
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="63" t="s">
+      <c r="AA9" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="AB9" s="61" t="s">
+      <c r="AB9" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="63" t="s">
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="63" t="s">
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AI9" s="61" t="s">
+      <c r="AI9" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="63" t="s">
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="63" t="s">
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="AQ9" s="63" t="s">
+      <c r="AQ9" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="AR9" s="63" t="s">
+      <c r="AR9" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="63" t="s">
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="AU9" s="61" t="s">
+      <c r="AU9" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="63" t="s">
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="AY9" s="61" t="s">
+      <c r="AY9" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="65"/>
-      <c r="BC9" s="65"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="65"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
     </row>
     <row r="10" spans="1:57" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
       <c r="M10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="73"/>
       <c r="P10" s="8" t="s">
         <v>130</v>
       </c>
@@ -5356,33 +5341,33 @@
       <c r="S10" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="64"/>
+      <c r="T10" s="73"/>
       <c r="U10" s="8" t="s">
         <v>126</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="73"/>
       <c r="X10" s="8" t="s">
         <v>124</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
       <c r="AB10" s="8" t="s">
         <v>122</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
       <c r="AI10" s="8" t="s">
         <v>120</v>
       </c>
@@ -5392,7 +5377,7 @@
       <c r="AK10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" s="64"/>
+      <c r="AL10" s="73"/>
       <c r="AM10" s="8" t="s">
         <v>117</v>
       </c>
@@ -5402,11 +5387,11 @@
       <c r="AO10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
       <c r="AU10" s="8" t="s">
         <v>114</v>
       </c>
@@ -5416,18 +5401,18 @@
       <c r="AW10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AX10" s="64"/>
+      <c r="AX10" s="73"/>
       <c r="AY10" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AZ10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
     </row>
     <row r="11" spans="1:57" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -16335,12 +16320,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BD8:BD10"/>
+    <mergeCell ref="BE8:BE10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:BE6"/>
     <mergeCell ref="A7:B10"/>
@@ -16357,39 +16369,12 @@
     <mergeCell ref="AH8:AR8"/>
     <mergeCell ref="AS8:AS10"/>
     <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BC8:BC10"/>
-    <mergeCell ref="BD8:BD10"/>
-    <mergeCell ref="BE8:BE10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2019_MAIN&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3FEC89F7-2DF7-491F-AA22-C2D56987BE46}"/>
@@ -25843,7 +25828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C24BC-2F92-416E-AC1C-1CF95AF76421}">
   <dimension ref="A1:S443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -25852,23 +25837,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="40.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="23" customWidth="1"/>
     <col min="7" max="9" width="20.85546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="23" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23" style="23" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" style="23" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="23" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -25876,145 +25861,142 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" s="27" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    </row>
+    <row r="3" spans="1:19" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>1080</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="36" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>212</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="22">
         <v>3254</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>325</v>
       </c>
       <c r="J4" s="4">
         <v>3272</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="29"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="O4" s="28"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="22" t="s">
         <v>194</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="22">
         <v>20</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="22">
         <v>21</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>240</v>
       </c>
       <c r="J5" s="4">
         <v>231</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="4">
         <v>239</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>23</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="23">
         <v>241</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="23">
         <v>242</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>24</v>
       </c>
       <c r="P5" s="4">
@@ -26023,74 +26005,74 @@
       <c r="Q5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>64800</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>185400</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="39">
+      <c r="F6" s="28"/>
+      <c r="G6" s="23">
         <f>815300-284200</f>
         <v>531100</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="23">
         <v>284200</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6">
+      <c r="I6" s="28"/>
+      <c r="J6" s="23">
         <v>93600</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="23">
         <f>404500-93600</f>
         <v>310900</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6">
+      <c r="L6" s="28"/>
+      <c r="M6" s="23">
         <f>83700+59200+66600</f>
         <v>209500</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="23">
         <f>62100+62700+57600</f>
         <v>182400</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6">
+      <c r="O6" s="28"/>
+      <c r="P6" s="23">
         <v>397500</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="23">
         <v>119700</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="23">
         <v>50300</v>
       </c>
-      <c r="S6" s="29"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>233</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>228</v>
       </c>
       <c r="D7" s="19">
@@ -26101,91 +26083,88 @@
         <f>D40*10^6</f>
         <v>268953000000</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="39">
+      <c r="F7" s="28"/>
+      <c r="G7" s="23">
         <f>SUM(D278:D284,D289:D296)*10^6</f>
         <v>515925000000</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="23">
         <f>SUM(D285:D288)*10^6</f>
         <v>269601000000</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="50">
+      <c r="I7" s="28"/>
+      <c r="J7" s="44">
         <f>D77*10^6</f>
         <v>25886000000</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="44">
         <f>SUM(D76,D78:D87)*10^6</f>
         <v>93232000000</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="50">
+      <c r="L7" s="28"/>
+      <c r="M7" s="44">
         <f>SUM(D88:D89,D96)*10^6</f>
         <v>127020000000</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="23">
         <f>SUM(D90:D95,D97)*10^6</f>
         <v>100094000000</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="50">
+      <c r="O7" s="28"/>
+      <c r="P7" s="44">
         <f>SUM(D48:D57)*10^6</f>
         <v>413205000000</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="44">
         <f>D58*10^6</f>
         <v>86048000000</v>
       </c>
-      <c r="R7" s="51">
-        <f>D59*10^6</f>
-        <v>14508000000</v>
-      </c>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="R7" s="44">
+        <f>SUM(D59,D392)*10^6</f>
+        <v>104319000000</v>
+      </c>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>205</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20">
         <v>268953000000</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>106189000000</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="30">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="29">
         <v>785526000000</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="60">
+      <c r="L8" s="49">
         <v>119118000000</v>
       </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="60">
+      <c r="O8" s="49">
         <v>227114000000</v>
       </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="60">
+      <c r="S8" s="49">
         <v>513760000000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="28" t="str">
         <f>A9</f>
         <v>Value Added</v>
       </c>
@@ -26197,68 +26176,68 @@
         <f>I33*10^6</f>
         <v>158231000000</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <f>I34*10^6</f>
         <v>49994000000</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="77">
         <f>$I9*(G$7/$I$8)</f>
         <v>218698327521.9407</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="77">
         <f>$I9*(H$7/$I$8)</f>
         <v>114282672478.05928</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <f>I58*10^6</f>
         <v>332981000000</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="77">
         <f>$L9*(J$7/$L$8)</f>
         <v>11878596400.208197</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="77">
         <f>$L9*(K$7/$L$8)</f>
         <v>42782403599.791801</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="49">
         <f>I41*10^6</f>
         <v>54661000000</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="77">
         <f>$O9*(M$7/$O$8)</f>
         <v>33593628398.073215</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="77">
         <f>$O9*(N$7/$O$8)</f>
         <v>26472371601.926785</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="49">
         <f>I42*10^6</f>
         <v>60066000000</v>
       </c>
-      <c r="P9" s="59">
-        <f t="shared" ref="P9:Q9" si="0">$S9*(P$7/$S$8)</f>
+      <c r="P9" s="77">
+        <f t="shared" ref="P9:R12" si="0">$S9*(P$7/$S$8)</f>
         <v>240665210526.3158</v>
       </c>
-      <c r="Q9" s="59">
+      <c r="Q9" s="77">
         <f t="shared" si="0"/>
         <v>50117399439.426971</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="77">
         <f>$S9*(R$7/$S$8)</f>
-        <v>8449972469.6356268</v>
-      </c>
-      <c r="S9" s="60">
+        <v>60759076237.932114</v>
+      </c>
+      <c r="S9" s="49">
         <f>I36*10^6</f>
         <v>299232000000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="28" t="str">
         <f t="shared" ref="C10:C12" si="1">A10</f>
         <v>Compensation of employees</v>
       </c>
@@ -26270,68 +26249,68 @@
         <f>J33*10^6</f>
         <v>38814000000</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <f>J34*10^6</f>
         <v>18055000000</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="77">
         <f t="shared" ref="G10:H12" si="3">$I10*(G$7/$I$8)</f>
         <v>65995493274.57016</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="77">
         <f t="shared" si="3"/>
         <v>34486506725.42984</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <f>J58*10^6</f>
         <v>100482000000</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="77">
         <f t="shared" ref="J10:K12" si="4">$L10*(J$7/$L$8)</f>
         <v>5884861062.1400633</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="77">
         <f t="shared" si="4"/>
         <v>21195138937.859936</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="49">
         <f>J41*10^6</f>
         <v>27080000000</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="77">
         <f t="shared" ref="M10:N12" si="5">$O10*(M$7/$O$8)</f>
         <v>17693337795.116112</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="77">
         <f t="shared" si="5"/>
         <v>13942662204.883892</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="49">
         <f>J42*10^6</f>
         <v>31636000000</v>
       </c>
-      <c r="P10" s="59">
-        <f t="shared" ref="P10:R12" si="6">$S10*(P$7/$S$8)</f>
+      <c r="P10" s="77">
+        <f t="shared" si="0"/>
         <v>62434361842.105263</v>
       </c>
-      <c r="Q10" s="59">
-        <f t="shared" si="6"/>
+      <c r="Q10" s="77">
+        <f t="shared" si="0"/>
         <v>13001662535.035814</v>
       </c>
-      <c r="R10" s="59">
-        <f t="shared" si="6"/>
-        <v>2192126720.6477733</v>
-      </c>
-      <c r="S10" s="60">
+      <c r="R10" s="77">
+        <f t="shared" si="0"/>
+        <v>15762370235.129244</v>
+      </c>
+      <c r="S10" s="49">
         <f>J36*10^6</f>
         <v>77628000000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>1185</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Taxes on production and imports, less subsidies</v>
       </c>
@@ -26343,68 +26322,68 @@
         <f>K33*10^6</f>
         <v>32690000000</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <f>K34*10^6</f>
         <v>4968000000</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="77">
         <f t="shared" si="3"/>
         <v>10700409789.109463</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="77">
         <f t="shared" si="3"/>
         <v>5591590210.8905363</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <f>K58*10^6</f>
         <v>16292000000</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="77">
         <f t="shared" si="4"/>
         <v>314235934.11575079</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="77">
         <f t="shared" si="4"/>
         <v>1131764065.8842492</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="49">
         <f>K41*10^6</f>
         <v>1446000000</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="77">
         <f t="shared" si="5"/>
         <v>1388688764.2329404</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="77">
         <f t="shared" si="5"/>
         <v>1094311235.7670598</v>
       </c>
-      <c r="O11" s="60">
+      <c r="O11" s="49">
         <f>K42*10^6</f>
         <v>2483000000</v>
       </c>
-      <c r="P11" s="59">
-        <f t="shared" si="6"/>
+      <c r="P11" s="77">
+        <f t="shared" si="0"/>
         <v>47461149671.052628</v>
       </c>
-      <c r="Q11" s="59">
-        <f t="shared" si="6"/>
+      <c r="Q11" s="77">
+        <f t="shared" si="0"/>
         <v>9883561445.0326996</v>
       </c>
-      <c r="R11" s="59">
-        <f t="shared" si="6"/>
-        <v>1666403744.9392712</v>
-      </c>
-      <c r="S11" s="60">
+      <c r="R11" s="77">
+        <f t="shared" si="0"/>
+        <v>11982187225.552788</v>
+      </c>
+      <c r="S11" s="49">
         <f>K36*10^6</f>
         <v>59011000000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Gross operating surplus</v>
       </c>
@@ -26416,188 +26395,137 @@
         <f>L33*10^6</f>
         <v>86727000000</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <f>L34*10^6</f>
         <v>26971000000</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="77">
         <f t="shared" si="3"/>
         <v>142001767669.05234</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="77">
         <f t="shared" si="3"/>
         <v>74204232330.947662</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="29">
         <f>L58*10^6</f>
         <v>216206000000</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="77">
         <f t="shared" si="4"/>
         <v>5679499403.952384</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="77">
         <f t="shared" si="4"/>
         <v>20455500596.047615</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="49">
         <f>L41*10^6</f>
         <v>26135000000</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="77">
         <f t="shared" si="5"/>
         <v>14511601838.724167</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="77">
         <f t="shared" si="5"/>
         <v>11435398161.275835</v>
       </c>
-      <c r="O12" s="60">
+      <c r="O12" s="49">
         <f>L42*10^6</f>
         <v>25947000000</v>
       </c>
-      <c r="P12" s="59">
-        <f t="shared" si="6"/>
+      <c r="P12" s="77">
+        <f t="shared" si="0"/>
         <v>130769699013.1579</v>
       </c>
-      <c r="Q12" s="59">
-        <f t="shared" si="6"/>
+      <c r="Q12" s="77">
+        <f t="shared" si="0"/>
         <v>27232175459.358456</v>
       </c>
-      <c r="R12" s="59">
-        <f t="shared" si="6"/>
-        <v>4591442004.048583</v>
-      </c>
-      <c r="S12" s="60">
+      <c r="R12" s="77">
+        <f t="shared" si="0"/>
+        <v>33014518777.25008</v>
+      </c>
+      <c r="S12" s="49">
         <f>L36*10^6</f>
         <v>162593000000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="25"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="25"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="25"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="D25" s="23"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-    </row>
-    <row r="26" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="41" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>1085</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="58" t="s">
+      <c r="H26" s="40"/>
+      <c r="I26" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="48" t="s">
         <v>1183</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="48" t="s">
         <v>1185</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>248</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="37">
         <v>34314</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -26606,29 +26534,27 @@
       <c r="H27" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="37">
         <v>18238301</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="37">
         <v>9709535</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="37">
         <v>1217959</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="37">
         <v>7310806</v>
       </c>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="37">
         <v>61876</v>
       </c>
       <c r="G28" s="23" t="s">
@@ -26637,29 +26563,28 @@
       <c r="H28" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="37">
         <v>15898859</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="37">
         <v>7863213</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="37">
         <v>1242490</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="37">
         <v>6793156</v>
       </c>
-      <c r="N28" s="82"/>
-      <c r="O28" s="81"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="37">
         <v>19404</v>
       </c>
       <c r="G29" s="23" t="s">
@@ -26668,29 +26593,28 @@
       <c r="H29" s="23" t="s">
         <v>1093</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="37">
         <v>182283</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="37">
         <v>50616</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="37">
         <v>2314</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="37">
         <v>129354</v>
       </c>
-      <c r="N29" s="82"/>
-      <c r="O29" s="81"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
         <v>254</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="37">
         <v>28308</v>
       </c>
       <c r="G30" s="23" t="s">
@@ -26699,29 +26623,28 @@
       <c r="H30" s="23" t="s">
         <v>1094</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="37">
         <v>147384</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="37">
         <v>27205</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="37">
         <v>789</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="37">
         <v>119390</v>
       </c>
-      <c r="N30" s="82"/>
-      <c r="O30" s="81"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
         <v>256</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="37">
         <v>22098</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -26730,29 +26653,27 @@
       <c r="H31" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="37">
         <v>34899</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="37">
         <v>23410</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="37">
         <v>1525</v>
       </c>
-      <c r="L31" s="43">
+      <c r="L31" s="37">
         <v>9964</v>
       </c>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="37">
         <v>22767</v>
       </c>
       <c r="G32" s="23" t="s">
@@ -26761,20 +26682,18 @@
       <c r="H32" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="37">
         <v>261774</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="37">
         <v>91867</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="37">
         <v>40072</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="37">
         <v>129835</v>
       </c>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
@@ -26783,25 +26702,25 @@
       <c r="C33" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="37">
         <v>36867</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="38" t="s">
         <v>1097</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="37">
         <v>158231</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="37">
         <v>38814</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="37">
         <v>32690</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="37">
         <v>86727</v>
       </c>
     </row>
@@ -26812,25 +26731,25 @@
       <c r="C34" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="37">
         <v>93695</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="38" t="s">
         <v>1098</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="37">
         <v>49994</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="37">
         <v>18055</v>
       </c>
-      <c r="K34" s="43">
+      <c r="K34" s="37">
         <v>4968</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="37">
         <v>26971</v>
       </c>
     </row>
@@ -26841,7 +26760,7 @@
       <c r="C35" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="37">
         <v>50423</v>
       </c>
       <c r="G35" s="23" t="s">
@@ -26850,16 +26769,16 @@
       <c r="H35" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="37">
         <v>53550</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="37">
         <v>34998</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="37">
         <v>2415</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="37">
         <v>16137</v>
       </c>
     </row>
@@ -26870,25 +26789,25 @@
       <c r="C36" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="37">
         <v>36649</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="38" t="s">
         <v>1100</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="37">
         <v>299232</v>
       </c>
-      <c r="J36" s="43">
+      <c r="J36" s="37">
         <v>77628</v>
       </c>
-      <c r="K36" s="43">
+      <c r="K36" s="37">
         <v>59011</v>
       </c>
-      <c r="L36" s="43">
+      <c r="L36" s="37">
         <v>162593</v>
       </c>
     </row>
@@ -26899,7 +26818,7 @@
       <c r="C37" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="37">
         <v>21437</v>
       </c>
       <c r="G37" s="23" t="s">
@@ -26908,16 +26827,16 @@
       <c r="H37" s="23" t="s">
         <v>1101</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="37">
         <v>694943</v>
       </c>
-      <c r="J37" s="43">
+      <c r="J37" s="37">
         <v>458477</v>
       </c>
-      <c r="K37" s="43">
+      <c r="K37" s="37">
         <v>8976</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="37">
         <v>227490</v>
       </c>
     </row>
@@ -26928,7 +26847,7 @@
       <c r="C38" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="37">
         <v>8667</v>
       </c>
       <c r="G38" s="23" t="s">
@@ -26937,16 +26856,16 @@
       <c r="H38" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="37">
         <v>2129592</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J38" s="37">
         <v>1006425</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K38" s="37">
         <v>85526</v>
       </c>
-      <c r="L38" s="43">
+      <c r="L38" s="37">
         <v>1037641</v>
       </c>
     </row>
@@ -26957,7 +26876,7 @@
       <c r="C39" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="37">
         <v>23422</v>
       </c>
       <c r="G39" s="23" t="s">
@@ -26966,16 +26885,16 @@
       <c r="H39" s="23" t="s">
         <v>1103</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="37">
         <v>1183755</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="37">
         <v>662696</v>
       </c>
-      <c r="K39" s="43">
+      <c r="K39" s="37">
         <v>30260</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="37">
         <v>490800</v>
       </c>
     </row>
@@ -26983,13 +26902,13 @@
       <c r="B40" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="37">
         <v>268953</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="23" t="s">
         <v>1086</v>
       </c>
       <c r="G40" s="23" t="s">
@@ -26998,16 +26917,16 @@
       <c r="H40" s="23" t="s">
         <v>1104</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="37">
         <v>32485</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="37">
         <v>20428</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K40" s="37">
         <v>704</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="37">
         <v>11353</v>
       </c>
     </row>
@@ -27015,31 +26934,31 @@
       <c r="B41" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="37">
         <v>40135</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="23" t="s">
         <v>1087</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="38" t="s">
         <v>1105</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="37">
         <v>54661</v>
       </c>
-      <c r="J41" s="43">
+      <c r="J41" s="37">
         <v>27080</v>
       </c>
-      <c r="K41" s="43">
+      <c r="K41" s="37">
         <v>1446</v>
       </c>
-      <c r="L41" s="43">
+      <c r="L41" s="37">
         <v>26135</v>
       </c>
     </row>
@@ -27050,25 +26969,25 @@
       <c r="C42" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="37">
         <v>11643</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H42" s="44" t="s">
+      <c r="H42" s="38" t="s">
         <v>1106</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="37">
         <v>60066</v>
       </c>
-      <c r="J42" s="43">
+      <c r="J42" s="37">
         <v>31636</v>
       </c>
-      <c r="K42" s="43">
+      <c r="K42" s="37">
         <v>2483</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="37">
         <v>25947</v>
       </c>
     </row>
@@ -27079,7 +26998,7 @@
       <c r="C43" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="37">
         <v>14089</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -27088,16 +27007,16 @@
       <c r="H43" s="23" t="s">
         <v>1107</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="37">
         <v>147361</v>
       </c>
-      <c r="J43" s="43">
+      <c r="J43" s="37">
         <v>97092</v>
       </c>
-      <c r="K43" s="43">
+      <c r="K43" s="37">
         <v>3374</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L43" s="37">
         <v>46896</v>
       </c>
     </row>
@@ -27108,7 +27027,7 @@
       <c r="C44" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="37">
         <v>19415</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -27117,16 +27036,16 @@
       <c r="H44" s="23" t="s">
         <v>1108</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="37">
         <v>152472</v>
       </c>
-      <c r="J44" s="43">
+      <c r="J44" s="37">
         <v>94664</v>
       </c>
-      <c r="K44" s="43">
+      <c r="K44" s="37">
         <v>3548</v>
       </c>
-      <c r="L44" s="43">
+      <c r="L44" s="37">
         <v>54260</v>
       </c>
     </row>
@@ -27137,7 +27056,7 @@
       <c r="C45" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="37">
         <v>20908</v>
       </c>
       <c r="G45" s="23" t="s">
@@ -27146,16 +27065,16 @@
       <c r="H45" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="37">
         <v>267323</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="37">
         <v>137529</v>
       </c>
-      <c r="K45" s="43">
+      <c r="K45" s="37">
         <v>8570</v>
       </c>
-      <c r="L45" s="43">
+      <c r="L45" s="37">
         <v>121224</v>
       </c>
     </row>
@@ -27166,7 +27085,7 @@
       <c r="C46" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="37">
         <v>32318</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -27175,16 +27094,16 @@
       <c r="H46" s="23" t="s">
         <v>1110</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="37">
         <v>63631</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="37">
         <v>34671</v>
       </c>
-      <c r="K46" s="43">
+      <c r="K46" s="37">
         <v>879</v>
       </c>
-      <c r="L46" s="43">
+      <c r="L46" s="37">
         <v>28080</v>
       </c>
     </row>
@@ -27195,7 +27114,7 @@
       <c r="C47" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="37">
         <v>88512</v>
       </c>
       <c r="G47" s="23" t="s">
@@ -27204,16 +27123,16 @@
       <c r="H47" s="23" t="s">
         <v>1111</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="37">
         <v>146240</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="37">
         <v>69905</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K47" s="37">
         <v>3414</v>
       </c>
-      <c r="L47" s="43">
+      <c r="L47" s="37">
         <v>72921</v>
       </c>
     </row>
@@ -27221,13 +27140,13 @@
       <c r="B48" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="37">
         <v>3124</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="23" t="s">
         <v>1088</v>
       </c>
       <c r="G48" s="23" t="s">
@@ -27236,16 +27155,16 @@
       <c r="H48" s="23" t="s">
         <v>1112</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="37">
         <v>149076</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J48" s="37">
         <v>77790</v>
       </c>
-      <c r="K48" s="43">
+      <c r="K48" s="37">
         <v>2485</v>
       </c>
-      <c r="L48" s="43">
+      <c r="L48" s="37">
         <v>68800</v>
       </c>
     </row>
@@ -27253,10 +27172,10 @@
       <c r="B49" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="37">
         <v>103566</v>
       </c>
       <c r="E49" s="23" t="s">
@@ -27268,16 +27187,16 @@
       <c r="H49" s="23" t="s">
         <v>1113</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="37">
         <v>29141</v>
       </c>
-      <c r="J49" s="43">
+      <c r="J49" s="37">
         <v>20277</v>
       </c>
-      <c r="K49" s="43">
+      <c r="K49" s="37">
         <v>387</v>
       </c>
-      <c r="L49" s="43">
+      <c r="L49" s="37">
         <v>8477</v>
       </c>
     </row>
@@ -27285,10 +27204,10 @@
       <c r="B50" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="37">
         <v>36820</v>
       </c>
       <c r="E50" s="23" t="s">
@@ -27300,16 +27219,16 @@
       <c r="H50" s="23" t="s">
         <v>1114</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="37">
         <v>81299</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="37">
         <v>51622</v>
       </c>
-      <c r="K50" s="43">
+      <c r="K50" s="37">
         <v>2969</v>
       </c>
-      <c r="L50" s="43">
+      <c r="L50" s="37">
         <v>26708</v>
       </c>
     </row>
@@ -27317,10 +27236,10 @@
       <c r="B51" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="37">
         <v>749</v>
       </c>
       <c r="E51" s="23" t="s">
@@ -27332,16 +27251,16 @@
       <c r="H51" s="23" t="s">
         <v>1115</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I51" s="37">
         <v>945837</v>
       </c>
-      <c r="J51" s="43">
+      <c r="J51" s="37">
         <v>343730</v>
       </c>
-      <c r="K51" s="43">
+      <c r="K51" s="37">
         <v>55266</v>
       </c>
-      <c r="L51" s="43">
+      <c r="L51" s="37">
         <v>546841</v>
       </c>
     </row>
@@ -27349,10 +27268,10 @@
       <c r="B52" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="37">
         <v>6621</v>
       </c>
       <c r="E52" s="23" t="s">
@@ -27364,16 +27283,16 @@
       <c r="H52" s="23" t="s">
         <v>1116</v>
       </c>
-      <c r="I52" s="43">
+      <c r="I52" s="37">
         <v>261724</v>
       </c>
-      <c r="J52" s="43">
+      <c r="J52" s="37">
         <v>103480</v>
       </c>
-      <c r="K52" s="43">
+      <c r="K52" s="37">
         <v>30122</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="37">
         <v>128122</v>
       </c>
     </row>
@@ -27381,10 +27300,10 @@
       <c r="B53" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="37">
         <v>1416</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -27396,16 +27315,16 @@
       <c r="H53" s="23" t="s">
         <v>1117</v>
       </c>
-      <c r="I53" s="43">
+      <c r="I53" s="37">
         <v>17936</v>
       </c>
-      <c r="J53" s="43">
+      <c r="J53" s="37">
         <v>12017</v>
       </c>
-      <c r="K53" s="43">
+      <c r="K53" s="37">
         <v>571</v>
       </c>
-      <c r="L53" s="43">
+      <c r="L53" s="37">
         <v>5348</v>
       </c>
     </row>
@@ -27413,10 +27332,10 @@
       <c r="B54" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="37">
         <v>1101</v>
       </c>
       <c r="E54" s="23" t="s">
@@ -27428,16 +27347,16 @@
       <c r="H54" s="23" t="s">
         <v>1118</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I54" s="37">
         <v>9694</v>
       </c>
-      <c r="J54" s="43">
+      <c r="J54" s="37">
         <v>8174</v>
       </c>
-      <c r="K54" s="43">
+      <c r="K54" s="37">
         <v>290</v>
       </c>
-      <c r="L54" s="43">
+      <c r="L54" s="37">
         <v>1230</v>
       </c>
     </row>
@@ -27445,10 +27364,10 @@
       <c r="B55" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="37">
         <v>228</v>
       </c>
       <c r="E55" s="23" t="s">
@@ -27460,16 +27379,16 @@
       <c r="H55" s="23" t="s">
         <v>1119</v>
       </c>
-      <c r="I55" s="43">
+      <c r="I55" s="37">
         <v>59668</v>
       </c>
-      <c r="J55" s="43">
+      <c r="J55" s="37">
         <v>30172</v>
       </c>
-      <c r="K55" s="43">
+      <c r="K55" s="37">
         <v>1736</v>
       </c>
-      <c r="L55" s="43">
+      <c r="L55" s="37">
         <v>27760</v>
       </c>
     </row>
@@ -27477,10 +27396,10 @@
       <c r="B56" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="37">
         <v>12770</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -27492,16 +27411,16 @@
       <c r="H56" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I56" s="43">
+      <c r="I56" s="37">
         <v>40211</v>
       </c>
-      <c r="J56" s="43">
+      <c r="J56" s="37">
         <v>26028</v>
       </c>
-      <c r="K56" s="43">
+      <c r="K56" s="37">
         <v>762</v>
       </c>
-      <c r="L56" s="43">
+      <c r="L56" s="37">
         <v>13421</v>
       </c>
     </row>
@@ -27509,10 +27428,10 @@
       <c r="B57" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="37">
         <v>246810</v>
       </c>
       <c r="E57" s="23" t="s">
@@ -27524,16 +27443,16 @@
       <c r="H57" s="23" t="s">
         <v>1121</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I57" s="37">
         <v>145371</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="37">
         <v>19815</v>
       </c>
-      <c r="K57" s="43">
+      <c r="K57" s="37">
         <v>3677</v>
       </c>
-      <c r="L57" s="43">
+      <c r="L57" s="37">
         <v>121879</v>
       </c>
     </row>
@@ -27541,31 +27460,31 @@
       <c r="B58" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="37">
         <v>86048</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="23" t="s">
         <v>1089</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="38" t="s">
         <v>1122</v>
       </c>
-      <c r="I58" s="43">
+      <c r="I58" s="37">
         <v>332981</v>
       </c>
-      <c r="J58" s="43">
+      <c r="J58" s="37">
         <v>100482</v>
       </c>
-      <c r="K58" s="43">
+      <c r="K58" s="37">
         <v>16292</v>
       </c>
-      <c r="L58" s="43">
+      <c r="L58" s="37">
         <v>216206</v>
       </c>
     </row>
@@ -27576,10 +27495,10 @@
       <c r="C59" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="37">
         <v>14508</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="23" t="s">
         <v>1090</v>
       </c>
       <c r="G59" s="23" t="s">
@@ -27588,16 +27507,16 @@
       <c r="H59" s="23" t="s">
         <v>1123</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I59" s="37">
         <v>78252</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J59" s="37">
         <v>43560</v>
       </c>
-      <c r="K59" s="43">
+      <c r="K59" s="37">
         <v>1817</v>
       </c>
-      <c r="L59" s="43">
+      <c r="L59" s="37">
         <v>32875</v>
       </c>
     </row>
@@ -27608,7 +27527,7 @@
       <c r="C60" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="37">
         <v>40117</v>
       </c>
       <c r="G60" s="23" t="s">
@@ -27617,16 +27536,16 @@
       <c r="H60" s="23" t="s">
         <v>1124</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I60" s="37">
         <v>1142867</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J60" s="37">
         <v>509809</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K60" s="37">
         <v>210383</v>
       </c>
-      <c r="L60" s="43">
+      <c r="L60" s="37">
         <v>422674</v>
       </c>
     </row>
@@ -27637,7 +27556,7 @@
       <c r="C61" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="37">
         <v>88209</v>
       </c>
       <c r="G61" s="23" t="s">
@@ -27646,16 +27565,16 @@
       <c r="H61" s="23" t="s">
         <v>1125</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="37">
         <v>1020079</v>
       </c>
-      <c r="J61" s="43">
+      <c r="J61" s="37">
         <v>573627</v>
       </c>
-      <c r="K61" s="43">
+      <c r="K61" s="37">
         <v>216863</v>
       </c>
-      <c r="L61" s="43">
+      <c r="L61" s="37">
         <v>229589</v>
       </c>
     </row>
@@ -27666,7 +27585,7 @@
       <c r="C62" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D62" s="43">
+      <c r="D62" s="37">
         <v>191101</v>
       </c>
       <c r="G62" s="23" t="s">
@@ -27675,16 +27594,16 @@
       <c r="H62" s="23" t="s">
         <v>1126</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="37">
         <v>565836</v>
       </c>
-      <c r="J62" s="43">
+      <c r="J62" s="37">
         <v>320031</v>
       </c>
-      <c r="K62" s="43">
+      <c r="K62" s="37">
         <v>34977</v>
       </c>
-      <c r="L62" s="43">
+      <c r="L62" s="37">
         <v>210828</v>
       </c>
     </row>
@@ -27695,7 +27614,7 @@
       <c r="C63" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D63" s="43">
+      <c r="D63" s="37">
         <v>76959</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -27704,16 +27623,16 @@
       <c r="H63" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="37">
         <v>117693</v>
       </c>
-      <c r="J63" s="43">
+      <c r="J63" s="37">
         <v>48445</v>
       </c>
-      <c r="K63" s="43">
+      <c r="K63" s="37">
         <v>22055</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L63" s="37">
         <v>47193</v>
       </c>
     </row>
@@ -27724,7 +27643,7 @@
       <c r="C64" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="37">
         <v>112928</v>
       </c>
       <c r="G64" s="23" t="s">
@@ -27733,16 +27652,16 @@
       <c r="H64" s="23" t="s">
         <v>1128</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="37">
         <v>44301</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J64" s="37">
         <v>24226</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K64" s="37">
         <v>208</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="37">
         <v>19867</v>
       </c>
     </row>
@@ -27753,7 +27672,7 @@
       <c r="C65" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="D65" s="43">
+      <c r="D65" s="37">
         <v>55962</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -27762,16 +27681,16 @@
       <c r="H65" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="37">
         <v>15792</v>
       </c>
-      <c r="J65" s="43">
+      <c r="J65" s="37">
         <v>7322</v>
       </c>
-      <c r="K65" s="43">
+      <c r="K65" s="37">
         <v>867</v>
       </c>
-      <c r="L65" s="43">
+      <c r="L65" s="37">
         <v>7603</v>
       </c>
     </row>
@@ -27782,7 +27701,7 @@
       <c r="C66" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="37">
         <v>212844</v>
       </c>
       <c r="G66" s="23" t="s">
@@ -27791,16 +27710,16 @@
       <c r="H66" s="23" t="s">
         <v>1130</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="37">
         <v>149029</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="37">
         <v>92014</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="37">
         <v>4144</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="37">
         <v>52871</v>
       </c>
     </row>
@@ -27811,7 +27730,7 @@
       <c r="C67" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="37">
         <v>69028</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -27820,16 +27739,16 @@
       <c r="H67" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="I67" s="43">
+      <c r="I67" s="37">
         <v>42197</v>
       </c>
-      <c r="J67" s="43">
+      <c r="J67" s="37">
         <v>19815</v>
       </c>
-      <c r="K67" s="43">
+      <c r="K67" s="37">
         <v>1708</v>
       </c>
-      <c r="L67" s="43">
+      <c r="L67" s="37">
         <v>20673</v>
       </c>
     </row>
@@ -27840,7 +27759,7 @@
       <c r="C68" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="37">
         <v>105415</v>
       </c>
       <c r="G68" s="23" t="s">
@@ -27849,16 +27768,16 @@
       <c r="H68" s="23" t="s">
         <v>1132</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="37">
         <v>36810</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="37">
         <v>7146</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K68" s="37">
         <v>2951</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L68" s="37">
         <v>26712</v>
       </c>
     </row>
@@ -27869,7 +27788,7 @@
       <c r="C69" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="37">
         <v>111108</v>
       </c>
       <c r="G69" s="23" t="s">
@@ -27878,16 +27797,16 @@
       <c r="H69" s="23" t="s">
         <v>1133</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="37">
         <v>108074</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="37">
         <v>77801</v>
       </c>
-      <c r="K69" s="43">
+      <c r="K69" s="37">
         <v>2263</v>
       </c>
-      <c r="L69" s="43">
+      <c r="L69" s="37">
         <v>28010</v>
       </c>
     </row>
@@ -27898,7 +27817,7 @@
       <c r="C70" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="37">
         <v>209093</v>
       </c>
       <c r="G70" s="23" t="s">
@@ -27907,16 +27826,16 @@
       <c r="H70" s="23" t="s">
         <v>1134</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="37">
         <v>51940</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="37">
         <v>43261</v>
       </c>
-      <c r="K70" s="43">
+      <c r="K70" s="37">
         <v>781</v>
       </c>
-      <c r="L70" s="43">
+      <c r="L70" s="37">
         <v>7898</v>
       </c>
     </row>
@@ -27927,7 +27846,7 @@
       <c r="C71" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D71" s="43">
+      <c r="D71" s="37">
         <v>113347</v>
       </c>
       <c r="G71" s="23" t="s">
@@ -27936,16 +27855,16 @@
       <c r="H71" s="23" t="s">
         <v>1135</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="37">
         <v>906938</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="37">
         <v>318675</v>
       </c>
-      <c r="K71" s="43">
+      <c r="K71" s="37">
         <v>55293</v>
       </c>
-      <c r="L71" s="43">
+      <c r="L71" s="37">
         <v>532970</v>
       </c>
     </row>
@@ -27956,7 +27875,7 @@
       <c r="C72" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="43">
+      <c r="D72" s="37">
         <v>29072</v>
       </c>
       <c r="G72" s="23" t="s">
@@ -27965,16 +27884,16 @@
       <c r="H72" s="23" t="s">
         <v>1136</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="37">
         <v>223597</v>
       </c>
-      <c r="J72" s="43">
+      <c r="J72" s="37">
         <v>114787</v>
       </c>
-      <c r="K72" s="43">
+      <c r="K72" s="37">
         <v>5467</v>
       </c>
-      <c r="L72" s="43">
+      <c r="L72" s="37">
         <v>103343</v>
       </c>
     </row>
@@ -27985,7 +27904,7 @@
       <c r="C73" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="D73" s="43">
+      <c r="D73" s="37">
         <v>20986</v>
       </c>
       <c r="G73" s="23" t="s">
@@ -27994,16 +27913,16 @@
       <c r="H73" s="23" t="s">
         <v>1137</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="37">
         <v>87592</v>
       </c>
-      <c r="J73" s="43">
+      <c r="J73" s="37">
         <v>34244</v>
       </c>
-      <c r="K73" s="43">
+      <c r="K73" s="37">
         <v>6467</v>
       </c>
-      <c r="L73" s="43">
+      <c r="L73" s="37">
         <v>46882</v>
       </c>
     </row>
@@ -28014,7 +27933,7 @@
       <c r="C74" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="D74" s="43">
+      <c r="D74" s="37">
         <v>25586</v>
       </c>
       <c r="G74" s="23" t="s">
@@ -28023,16 +27942,16 @@
       <c r="H74" s="23" t="s">
         <v>1138</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="37">
         <v>426113</v>
       </c>
-      <c r="J74" s="43">
+      <c r="J74" s="37">
         <v>112649</v>
       </c>
-      <c r="K74" s="43">
+      <c r="K74" s="37">
         <v>39472</v>
       </c>
-      <c r="L74" s="43">
+      <c r="L74" s="37">
         <v>273993</v>
       </c>
     </row>
@@ -28043,7 +27962,7 @@
       <c r="C75" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="37">
         <v>25364</v>
       </c>
       <c r="G75" s="23" t="s">
@@ -28052,16 +27971,16 @@
       <c r="H75" s="23" t="s">
         <v>1139</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="37">
         <v>169636</v>
       </c>
-      <c r="J75" s="43">
+      <c r="J75" s="37">
         <v>56995</v>
       </c>
-      <c r="K75" s="43">
+      <c r="K75" s="37">
         <v>3888</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="37">
         <v>108752</v>
       </c>
     </row>
@@ -28069,13 +27988,13 @@
       <c r="B76" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="37">
         <v>8343</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="23" t="s">
         <v>1081</v>
       </c>
       <c r="G76" s="23" t="s">
@@ -28084,16 +28003,16 @@
       <c r="H76" s="23" t="s">
         <v>1140</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="37">
         <v>3749038</v>
       </c>
-      <c r="J76" s="43">
+      <c r="J76" s="37">
         <v>852412</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K76" s="37">
         <v>319509</v>
       </c>
-      <c r="L76" s="43">
+      <c r="L76" s="37">
         <v>2577118</v>
       </c>
     </row>
@@ -28101,13 +28020,13 @@
       <c r="B77" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C77" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="D77" s="43">
+      <c r="D77" s="37">
         <v>25886</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="23" t="s">
         <v>1082</v>
       </c>
       <c r="G77" s="23" t="s">
@@ -28116,16 +28035,16 @@
       <c r="H77" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="37">
         <v>1363092</v>
       </c>
-      <c r="J77" s="43">
+      <c r="J77" s="37">
         <v>715705</v>
       </c>
-      <c r="K77" s="43">
+      <c r="K77" s="37">
         <v>63497</v>
       </c>
-      <c r="L77" s="43">
+      <c r="L77" s="37">
         <v>583890</v>
       </c>
     </row>
@@ -28133,10 +28052,10 @@
       <c r="B78" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="37">
         <v>8215</v>
       </c>
       <c r="E78" s="23" t="s">
@@ -28148,16 +28067,16 @@
       <c r="H78" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="37">
         <v>560763</v>
       </c>
-      <c r="J78" s="43">
+      <c r="J78" s="37">
         <v>236473</v>
       </c>
-      <c r="K78" s="43">
+      <c r="K78" s="37">
         <v>17390</v>
       </c>
-      <c r="L78" s="43">
+      <c r="L78" s="37">
         <v>306900</v>
       </c>
     </row>
@@ -28165,10 +28084,10 @@
       <c r="B79" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="37">
         <v>27726</v>
       </c>
       <c r="E79" s="23" t="s">
@@ -28180,16 +28099,16 @@
       <c r="H79" s="23" t="s">
         <v>1143</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="37">
         <v>230878</v>
       </c>
-      <c r="J79" s="43">
+      <c r="J79" s="37">
         <v>227418</v>
       </c>
-      <c r="K79" s="43">
+      <c r="K79" s="37">
         <v>5065</v>
       </c>
-      <c r="L79" s="43">
+      <c r="L79" s="37">
         <v>-1604</v>
       </c>
     </row>
@@ -28197,10 +28116,10 @@
       <c r="B80" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="D80" s="43">
+      <c r="D80" s="37">
         <v>6454</v>
       </c>
       <c r="E80" s="23" t="s">
@@ -28212,16 +28131,16 @@
       <c r="H80" s="23" t="s">
         <v>1144</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I80" s="37">
         <v>554081</v>
       </c>
-      <c r="J80" s="43">
+      <c r="J80" s="37">
         <v>250693</v>
       </c>
-      <c r="K80" s="43">
+      <c r="K80" s="37">
         <v>40312</v>
       </c>
-      <c r="L80" s="43">
+      <c r="L80" s="37">
         <v>263076</v>
       </c>
     </row>
@@ -28229,10 +28148,10 @@
       <c r="B81" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="D81" s="43">
+      <c r="D81" s="37">
         <v>11048</v>
       </c>
       <c r="E81" s="23" t="s">
@@ -28244,16 +28163,16 @@
       <c r="H81" s="23" t="s">
         <v>1145</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="37">
         <v>17371</v>
       </c>
-      <c r="J81" s="43">
+      <c r="J81" s="37">
         <v>1121</v>
       </c>
-      <c r="K81" s="43">
+      <c r="K81" s="37">
         <v>731</v>
       </c>
-      <c r="L81" s="43">
+      <c r="L81" s="37">
         <v>15519</v>
       </c>
     </row>
@@ -28261,10 +28180,10 @@
       <c r="B82" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="D82" s="43">
+      <c r="D82" s="37">
         <v>7478</v>
       </c>
       <c r="E82" s="23" t="s">
@@ -28276,16 +28195,16 @@
       <c r="H82" s="23" t="s">
         <v>1146</v>
       </c>
-      <c r="I82" s="43">
+      <c r="I82" s="37">
         <v>2385946</v>
       </c>
-      <c r="J82" s="43">
+      <c r="J82" s="37">
         <v>136707</v>
       </c>
-      <c r="K82" s="43">
+      <c r="K82" s="37">
         <v>256012</v>
       </c>
-      <c r="L82" s="43">
+      <c r="L82" s="37">
         <v>1993228</v>
       </c>
     </row>
@@ -28293,10 +28212,10 @@
       <c r="B83" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="37">
         <v>5424</v>
       </c>
       <c r="E83" s="23" t="s">
@@ -28308,16 +28227,16 @@
       <c r="H83" s="23" t="s">
         <v>1147</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="37">
         <v>2180002</v>
       </c>
-      <c r="J83" s="43">
+      <c r="J83" s="37">
         <v>102208</v>
       </c>
-      <c r="K83" s="43">
+      <c r="K83" s="37">
         <v>237200</v>
       </c>
-      <c r="L83" s="43">
+      <c r="L83" s="37">
         <v>1840595</v>
       </c>
     </row>
@@ -28325,10 +28244,10 @@
       <c r="B84" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="D84" s="43">
+      <c r="D84" s="37">
         <v>4452</v>
       </c>
       <c r="E84" s="23" t="s">
@@ -28340,16 +28259,16 @@
       <c r="H84" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="I84" s="43">
+      <c r="I84" s="37">
         <v>205944</v>
       </c>
-      <c r="J84" s="43">
+      <c r="J84" s="37">
         <v>34499</v>
       </c>
-      <c r="K84" s="43">
+      <c r="K84" s="37">
         <v>18812</v>
       </c>
-      <c r="L84" s="43">
+      <c r="L84" s="37">
         <v>152633</v>
       </c>
     </row>
@@ -28357,10 +28276,10 @@
       <c r="B85" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="37">
         <v>3903</v>
       </c>
       <c r="E85" s="23" t="s">
@@ -28372,16 +28291,16 @@
       <c r="H85" s="23" t="s">
         <v>1149</v>
       </c>
-      <c r="I85" s="43">
+      <c r="I85" s="37">
         <v>2236932</v>
       </c>
-      <c r="J85" s="43">
+      <c r="J85" s="37">
         <v>1609923</v>
       </c>
-      <c r="K85" s="43">
+      <c r="K85" s="37">
         <v>55918</v>
       </c>
-      <c r="L85" s="43">
+      <c r="L85" s="37">
         <v>571091</v>
       </c>
     </row>
@@ -28389,10 +28308,10 @@
       <c r="B86" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="D86" s="43">
+      <c r="D86" s="37">
         <v>5966</v>
       </c>
       <c r="E86" s="23" t="s">
@@ -28404,16 +28323,16 @@
       <c r="H86" s="23" t="s">
         <v>1150</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="37">
         <v>1348595</v>
       </c>
-      <c r="J86" s="43">
+      <c r="J86" s="37">
         <v>909431</v>
       </c>
-      <c r="K86" s="43">
+      <c r="K86" s="37">
         <v>35128</v>
       </c>
-      <c r="L86" s="43">
+      <c r="L86" s="37">
         <v>404035</v>
       </c>
     </row>
@@ -28421,10 +28340,10 @@
       <c r="B87" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="D87" s="43">
+      <c r="D87" s="37">
         <v>4223</v>
       </c>
       <c r="E87" s="23" t="s">
@@ -28436,16 +28355,16 @@
       <c r="H87" s="23" t="s">
         <v>1151</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="37">
         <v>238595</v>
       </c>
-      <c r="J87" s="43">
+      <c r="J87" s="37">
         <v>122863</v>
       </c>
-      <c r="K87" s="43">
+      <c r="K87" s="37">
         <v>15945</v>
       </c>
-      <c r="L87" s="43">
+      <c r="L87" s="37">
         <v>99788</v>
       </c>
     </row>
@@ -28453,13 +28372,13 @@
       <c r="B88" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="D88" s="43">
+      <c r="D88" s="37">
         <v>88262</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="23" t="s">
         <v>1083</v>
       </c>
       <c r="G88" s="23" t="s">
@@ -28468,16 +28387,16 @@
       <c r="H88" s="23" t="s">
         <v>1152</v>
       </c>
-      <c r="I88" s="43">
+      <c r="I88" s="37">
         <v>284785</v>
       </c>
-      <c r="J88" s="43">
+      <c r="J88" s="37">
         <v>234630</v>
       </c>
-      <c r="K88" s="43">
+      <c r="K88" s="37">
         <v>5942</v>
       </c>
-      <c r="L88" s="43">
+      <c r="L88" s="37">
         <v>44213</v>
       </c>
     </row>
@@ -28485,10 +28404,10 @@
       <c r="B89" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="43">
+      <c r="D89" s="37">
         <v>20810</v>
       </c>
       <c r="E89" s="23" t="s">
@@ -28500,16 +28419,16 @@
       <c r="H89" s="23" t="s">
         <v>1153</v>
       </c>
-      <c r="I89" s="43">
+      <c r="I89" s="37">
         <v>825215</v>
       </c>
-      <c r="J89" s="43">
+      <c r="J89" s="37">
         <v>551939</v>
       </c>
-      <c r="K89" s="43">
+      <c r="K89" s="37">
         <v>13242</v>
       </c>
-      <c r="L89" s="43">
+      <c r="L89" s="37">
         <v>260034</v>
       </c>
     </row>
@@ -28520,10 +28439,10 @@
       <c r="C90" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="37">
         <v>6183</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="23" t="s">
         <v>1084</v>
       </c>
       <c r="G90" s="23" t="s">
@@ -28532,16 +28451,16 @@
       <c r="H90" s="23" t="s">
         <v>1154</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="37">
         <v>347961</v>
       </c>
-      <c r="J90" s="43">
+      <c r="J90" s="37">
         <v>302345</v>
       </c>
-      <c r="K90" s="43">
+      <c r="K90" s="37">
         <v>8494</v>
       </c>
-      <c r="L90" s="43">
+      <c r="L90" s="37">
         <v>37122</v>
       </c>
     </row>
@@ -28552,7 +28471,7 @@
       <c r="C91" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D91" s="43">
+      <c r="D91" s="37">
         <v>5743</v>
       </c>
       <c r="E91" s="23" t="s">
@@ -28564,16 +28483,16 @@
       <c r="H91" s="23" t="s">
         <v>1155</v>
       </c>
-      <c r="I91" s="43">
+      <c r="I91" s="37">
         <v>540376</v>
       </c>
-      <c r="J91" s="43">
+      <c r="J91" s="37">
         <v>398148</v>
       </c>
-      <c r="K91" s="43">
+      <c r="K91" s="37">
         <v>12295</v>
       </c>
-      <c r="L91" s="43">
+      <c r="L91" s="37">
         <v>129933</v>
       </c>
     </row>
@@ -28584,7 +28503,7 @@
       <c r="C92" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D92" s="43">
+      <c r="D92" s="37">
         <v>25691</v>
       </c>
       <c r="E92" s="23" t="s">
@@ -28596,16 +28515,16 @@
       <c r="H92" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="I92" s="43">
+      <c r="I92" s="37">
         <v>492465</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="37">
         <v>371539</v>
       </c>
-      <c r="K92" s="43">
+      <c r="K92" s="37">
         <v>8972</v>
       </c>
-      <c r="L92" s="43">
+      <c r="L92" s="37">
         <v>111954</v>
       </c>
     </row>
@@ -28616,7 +28535,7 @@
       <c r="C93" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D93" s="43">
+      <c r="D93" s="37">
         <v>10560</v>
       </c>
       <c r="E93" s="23" t="s">
@@ -28628,16 +28547,16 @@
       <c r="H93" s="23" t="s">
         <v>1157</v>
       </c>
-      <c r="I93" s="43">
+      <c r="I93" s="37">
         <v>47911</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="37">
         <v>26608</v>
       </c>
-      <c r="K93" s="43">
+      <c r="K93" s="37">
         <v>3323</v>
       </c>
-      <c r="L93" s="43">
+      <c r="L93" s="37">
         <v>17979</v>
       </c>
     </row>
@@ -28648,7 +28567,7 @@
       <c r="C94" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="37">
         <v>19585</v>
       </c>
       <c r="E94" s="23" t="s">
@@ -28660,16 +28579,16 @@
       <c r="H94" s="23" t="s">
         <v>1158</v>
       </c>
-      <c r="I94" s="43">
+      <c r="I94" s="37">
         <v>1571003</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="37">
         <v>1265582</v>
       </c>
-      <c r="K94" s="43">
+      <c r="K94" s="37">
         <v>35545</v>
       </c>
-      <c r="L94" s="43">
+      <c r="L94" s="37">
         <v>269876</v>
       </c>
     </row>
@@ -28680,7 +28599,7 @@
       <c r="C95" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D95" s="43">
+      <c r="D95" s="37">
         <v>18298</v>
       </c>
       <c r="E95" s="23" t="s">
@@ -28692,16 +28611,16 @@
       <c r="H95" s="23" t="s">
         <v>1159</v>
       </c>
-      <c r="I95" s="43">
+      <c r="I95" s="37">
         <v>233438</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="37">
         <v>180447</v>
       </c>
-      <c r="K95" s="43">
+      <c r="K95" s="37">
         <v>8387</v>
       </c>
-      <c r="L95" s="43">
+      <c r="L95" s="37">
         <v>44604</v>
       </c>
     </row>
@@ -28709,10 +28628,10 @@
       <c r="B96" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C96" s="44" t="s">
+      <c r="C96" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="37">
         <v>17948</v>
       </c>
       <c r="E96" s="23" t="s">
@@ -28724,16 +28643,16 @@
       <c r="H96" s="23" t="s">
         <v>1160</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="37">
         <v>1337565</v>
       </c>
-      <c r="J96" s="43">
+      <c r="J96" s="37">
         <v>1085134</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="37">
         <v>27158</v>
       </c>
-      <c r="L96" s="43">
+      <c r="L96" s="37">
         <v>225272</v>
       </c>
     </row>
@@ -28744,7 +28663,7 @@
       <c r="C97" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D97" s="43">
+      <c r="D97" s="37">
         <v>14034</v>
       </c>
       <c r="E97" s="23" t="s">
@@ -28756,16 +28675,16 @@
       <c r="H97" s="23" t="s">
         <v>1161</v>
       </c>
-      <c r="I97" s="43">
+      <c r="I97" s="37">
         <v>644175</v>
       </c>
-      <c r="J97" s="43">
+      <c r="J97" s="37">
         <v>494895</v>
       </c>
-      <c r="K97" s="43">
+      <c r="K97" s="37">
         <v>8566</v>
       </c>
-      <c r="L97" s="43">
+      <c r="L97" s="37">
         <v>140714</v>
       </c>
     </row>
@@ -28776,7 +28695,7 @@
       <c r="C98" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="D98" s="43">
+      <c r="D98" s="37">
         <v>7884</v>
       </c>
       <c r="G98" s="23" t="s">
@@ -28785,16 +28704,16 @@
       <c r="H98" s="23" t="s">
         <v>1162</v>
       </c>
-      <c r="I98" s="43">
+      <c r="I98" s="37">
         <v>581331</v>
       </c>
-      <c r="J98" s="43">
+      <c r="J98" s="37">
         <v>489855</v>
       </c>
-      <c r="K98" s="43">
+      <c r="K98" s="37">
         <v>16768</v>
       </c>
-      <c r="L98" s="43">
+      <c r="L98" s="37">
         <v>74709</v>
       </c>
     </row>
@@ -28805,7 +28724,7 @@
       <c r="C99" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="D99" s="43">
+      <c r="D99" s="37">
         <v>13425</v>
       </c>
       <c r="G99" s="23" t="s">
@@ -28814,16 +28733,16 @@
       <c r="H99" s="23" t="s">
         <v>1163</v>
       </c>
-      <c r="I99" s="43">
+      <c r="I99" s="37">
         <v>112058</v>
       </c>
-      <c r="J99" s="43">
+      <c r="J99" s="37">
         <v>100385</v>
       </c>
-      <c r="K99" s="43">
+      <c r="K99" s="37">
         <v>1824</v>
       </c>
-      <c r="L99" s="43">
+      <c r="L99" s="37">
         <v>9849</v>
       </c>
     </row>
@@ -28834,7 +28753,7 @@
       <c r="C100" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="D100" s="43">
+      <c r="D100" s="37">
         <v>11837</v>
       </c>
       <c r="G100" s="23" t="s">
@@ -28843,16 +28762,16 @@
       <c r="H100" s="23" t="s">
         <v>1164</v>
       </c>
-      <c r="I100" s="43">
+      <c r="I100" s="37">
         <v>746773</v>
       </c>
-      <c r="J100" s="43">
+      <c r="J100" s="37">
         <v>441746</v>
       </c>
-      <c r="K100" s="43">
+      <c r="K100" s="37">
         <v>96713</v>
       </c>
-      <c r="L100" s="43">
+      <c r="L100" s="37">
         <v>208314</v>
       </c>
     </row>
@@ -28863,7 +28782,7 @@
       <c r="C101" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="D101" s="43">
+      <c r="D101" s="37">
         <v>10007</v>
       </c>
       <c r="G101" s="23" t="s">
@@ -28872,16 +28791,16 @@
       <c r="H101" s="23" t="s">
         <v>1165</v>
       </c>
-      <c r="I101" s="43">
+      <c r="I101" s="37">
         <v>193468</v>
       </c>
-      <c r="J101" s="43">
+      <c r="J101" s="37">
         <v>100888</v>
       </c>
-      <c r="K101" s="43">
+      <c r="K101" s="37">
         <v>19506</v>
       </c>
-      <c r="L101" s="43">
+      <c r="L101" s="37">
         <v>73075</v>
       </c>
     </row>
@@ -28892,7 +28811,7 @@
       <c r="C102" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="D102" s="43">
+      <c r="D102" s="37">
         <v>45291</v>
       </c>
       <c r="G102" s="23" t="s">
@@ -28901,16 +28820,16 @@
       <c r="H102" s="23" t="s">
         <v>1166</v>
       </c>
-      <c r="I102" s="43">
+      <c r="I102" s="37">
         <v>112849</v>
       </c>
-      <c r="J102" s="43">
+      <c r="J102" s="37">
         <v>52218</v>
       </c>
-      <c r="K102" s="43">
+      <c r="K102" s="37">
         <v>8029</v>
       </c>
-      <c r="L102" s="43">
+      <c r="L102" s="37">
         <v>52602</v>
       </c>
     </row>
@@ -28921,7 +28840,7 @@
       <c r="C103" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="D103" s="43">
+      <c r="D103" s="37">
         <v>40189</v>
       </c>
       <c r="G103" s="23" t="s">
@@ -28930,16 +28849,16 @@
       <c r="H103" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="I103" s="43">
+      <c r="I103" s="37">
         <v>80619</v>
       </c>
-      <c r="J103" s="43">
+      <c r="J103" s="37">
         <v>48669</v>
       </c>
-      <c r="K103" s="43">
+      <c r="K103" s="37">
         <v>11476</v>
       </c>
-      <c r="L103" s="43">
+      <c r="L103" s="37">
         <v>20473</v>
       </c>
     </row>
@@ -28950,7 +28869,7 @@
       <c r="C104" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="D104" s="43">
+      <c r="D104" s="37">
         <v>7536</v>
       </c>
       <c r="G104" s="23" t="s">
@@ -28959,16 +28878,16 @@
       <c r="H104" s="23" t="s">
         <v>1168</v>
       </c>
-      <c r="I104" s="43">
+      <c r="I104" s="37">
         <v>553304</v>
       </c>
-      <c r="J104" s="43">
+      <c r="J104" s="37">
         <v>340858</v>
       </c>
-      <c r="K104" s="43">
+      <c r="K104" s="37">
         <v>77207</v>
       </c>
-      <c r="L104" s="43">
+      <c r="L104" s="37">
         <v>135239</v>
       </c>
     </row>
@@ -28979,7 +28898,7 @@
       <c r="C105" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="D105" s="43">
+      <c r="D105" s="37">
         <v>9269</v>
       </c>
       <c r="G105" s="23" t="s">
@@ -28988,16 +28907,16 @@
       <c r="H105" s="23" t="s">
         <v>1169</v>
       </c>
-      <c r="I105" s="43">
+      <c r="I105" s="37">
         <v>157517</v>
       </c>
-      <c r="J105" s="43">
+      <c r="J105" s="37">
         <v>77673</v>
       </c>
-      <c r="K105" s="43">
+      <c r="K105" s="37">
         <v>26513</v>
       </c>
-      <c r="L105" s="43">
+      <c r="L105" s="37">
         <v>53331</v>
       </c>
     </row>
@@ -29008,7 +28927,7 @@
       <c r="C106" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="D106" s="43">
+      <c r="D106" s="37">
         <v>18380</v>
       </c>
       <c r="G106" s="23" t="s">
@@ -29017,16 +28936,16 @@
       <c r="H106" s="23" t="s">
         <v>1170</v>
       </c>
-      <c r="I106" s="43">
+      <c r="I106" s="37">
         <v>395787</v>
       </c>
-      <c r="J106" s="43">
+      <c r="J106" s="37">
         <v>263185</v>
       </c>
-      <c r="K106" s="43">
+      <c r="K106" s="37">
         <v>50694</v>
       </c>
-      <c r="L106" s="43">
+      <c r="L106" s="37">
         <v>81908</v>
       </c>
     </row>
@@ -29037,7 +28956,7 @@
       <c r="C107" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D107" s="43">
+      <c r="D107" s="37">
         <v>8253</v>
       </c>
       <c r="G107" s="23" t="s">
@@ -29046,16 +28965,16 @@
       <c r="H107" s="23" t="s">
         <v>1171</v>
       </c>
-      <c r="I107" s="43">
+      <c r="I107" s="37">
         <v>391569</v>
       </c>
-      <c r="J107" s="43">
+      <c r="J107" s="37">
         <v>286397</v>
       </c>
-      <c r="K107" s="43">
+      <c r="K107" s="37">
         <v>21390</v>
       </c>
-      <c r="L107" s="43">
+      <c r="L107" s="37">
         <v>83782</v>
       </c>
     </row>
@@ -29066,7 +28985,7 @@
       <c r="C108" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="D108" s="43">
+      <c r="D108" s="37">
         <v>8828</v>
       </c>
       <c r="G108" s="23" t="s">
@@ -29075,16 +28994,16 @@
       <c r="H108" s="23" t="s">
         <v>1172</v>
       </c>
-      <c r="I108" s="43">
+      <c r="I108" s="37">
         <v>2339442</v>
       </c>
-      <c r="J108" s="43">
+      <c r="J108" s="37">
         <v>1846322</v>
       </c>
-      <c r="K108" s="43">
+      <c r="K108" s="37">
         <v>-24531</v>
       </c>
-      <c r="L108" s="43">
+      <c r="L108" s="37">
         <v>517651</v>
       </c>
     </row>
@@ -29095,7 +29014,7 @@
       <c r="C109" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="D109" s="43">
+      <c r="D109" s="37">
         <v>39168</v>
       </c>
       <c r="G109" s="23" t="s">
@@ -29104,16 +29023,16 @@
       <c r="H109" s="23" t="s">
         <v>1173</v>
       </c>
-      <c r="I109" s="43">
+      <c r="I109" s="37">
         <v>731280</v>
       </c>
-      <c r="J109" s="43">
+      <c r="J109" s="37">
         <v>469030</v>
       </c>
-      <c r="K109" s="43">
+      <c r="K109" s="37">
         <v>-6001</v>
       </c>
-      <c r="L109" s="43">
+      <c r="L109" s="37">
         <v>268250</v>
       </c>
     </row>
@@ -29124,7 +29043,7 @@
       <c r="C110" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="D110" s="43">
+      <c r="D110" s="37">
         <v>28288</v>
       </c>
       <c r="G110" s="23" t="s">
@@ -29133,16 +29052,16 @@
       <c r="H110" s="23" t="s">
         <v>1174</v>
       </c>
-      <c r="I110" s="43">
+      <c r="I110" s="37">
         <v>673658</v>
       </c>
-      <c r="J110" s="43">
+      <c r="J110" s="37">
         <v>409923</v>
       </c>
-      <c r="K110" s="43" t="s">
+      <c r="K110" s="37" t="s">
         <v>1184</v>
       </c>
-      <c r="L110" s="43">
+      <c r="L110" s="37">
         <v>263735</v>
       </c>
     </row>
@@ -29153,7 +29072,7 @@
       <c r="C111" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="D111" s="43">
+      <c r="D111" s="37">
         <v>27221</v>
       </c>
       <c r="G111" s="23" t="s">
@@ -29162,16 +29081,16 @@
       <c r="H111" s="23" t="s">
         <v>1175</v>
       </c>
-      <c r="I111" s="43">
+      <c r="I111" s="37">
         <v>57621</v>
       </c>
-      <c r="J111" s="43">
+      <c r="J111" s="37">
         <v>59107</v>
       </c>
-      <c r="K111" s="43">
+      <c r="K111" s="37">
         <v>-6001</v>
       </c>
-      <c r="L111" s="43">
+      <c r="L111" s="37">
         <v>4515</v>
       </c>
     </row>
@@ -29182,7 +29101,7 @@
       <c r="C112" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="D112" s="43">
+      <c r="D112" s="37">
         <v>4004</v>
       </c>
       <c r="G112" s="23" t="s">
@@ -29191,16 +29110,16 @@
       <c r="H112" s="23" t="s">
         <v>1176</v>
       </c>
-      <c r="I112" s="43">
+      <c r="I112" s="37">
         <v>1608162</v>
       </c>
-      <c r="J112" s="43">
+      <c r="J112" s="37">
         <v>1377292</v>
       </c>
-      <c r="K112" s="43">
+      <c r="K112" s="37">
         <v>-18530</v>
       </c>
-      <c r="L112" s="43">
+      <c r="L112" s="37">
         <v>249400</v>
       </c>
     </row>
@@ -29211,7 +29130,7 @@
       <c r="C113" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="D113" s="43">
+      <c r="D113" s="37">
         <v>28050</v>
       </c>
       <c r="G113" s="23" t="s">
@@ -29220,16 +29139,16 @@
       <c r="H113" s="23" t="s">
         <v>1177</v>
       </c>
-      <c r="I113" s="43">
+      <c r="I113" s="37">
         <v>1467317</v>
       </c>
-      <c r="J113" s="43">
+      <c r="J113" s="37">
         <v>1275273</v>
       </c>
-      <c r="K113" s="43" t="s">
+      <c r="K113" s="37" t="s">
         <v>1184</v>
       </c>
-      <c r="L113" s="43">
+      <c r="L113" s="37">
         <v>192044</v>
       </c>
     </row>
@@ -29240,7 +29159,7 @@
       <c r="C114" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="D114" s="43">
+      <c r="D114" s="37">
         <v>6997</v>
       </c>
       <c r="G114" s="23" t="s">
@@ -29249,16 +29168,16 @@
       <c r="H114" s="23" t="s">
         <v>1178</v>
       </c>
-      <c r="I114" s="43">
+      <c r="I114" s="37">
         <v>140845</v>
       </c>
-      <c r="J114" s="43">
+      <c r="J114" s="37">
         <v>102019</v>
       </c>
-      <c r="K114" s="43">
+      <c r="K114" s="37">
         <v>-18530</v>
       </c>
-      <c r="L114" s="43">
+      <c r="L114" s="37">
         <v>57356</v>
       </c>
     </row>
@@ -29269,13 +29188,13 @@
       <c r="C115" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="D115" s="43">
+      <c r="D115" s="37">
         <v>7632</v>
       </c>
       <c r="H115" s="23" t="s">
         <v>1179</v>
       </c>
-      <c r="I115" s="43"/>
+      <c r="I115" s="37"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="23" t="s">
@@ -29284,7 +29203,7 @@
       <c r="C116" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D116" s="43">
+      <c r="D116" s="37">
         <v>13831</v>
       </c>
       <c r="G116" s="23" t="s">
@@ -29293,7 +29212,7 @@
       <c r="H116" s="23" t="s">
         <v>1180</v>
       </c>
-      <c r="I116" s="43">
+      <c r="I116" s="37">
         <v>3268592</v>
       </c>
     </row>
@@ -29304,7 +29223,7 @@
       <c r="C117" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="D117" s="43">
+      <c r="D117" s="37">
         <v>15876</v>
       </c>
       <c r="G117" s="23" t="s">
@@ -29313,7 +29232,7 @@
       <c r="H117" s="23" t="s">
         <v>1181</v>
       </c>
-      <c r="I117" s="43">
+      <c r="I117" s="37">
         <v>12630266</v>
       </c>
     </row>
@@ -29324,7 +29243,7 @@
       <c r="C118" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D118" s="43">
+      <c r="D118" s="37">
         <v>30700</v>
       </c>
     </row>
@@ -29335,7 +29254,7 @@
       <c r="C119" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="37">
         <v>9198</v>
       </c>
     </row>
@@ -29346,7 +29265,7 @@
       <c r="C120" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="D120" s="43">
+      <c r="D120" s="37">
         <v>28981</v>
       </c>
     </row>
@@ -29357,7 +29276,7 @@
       <c r="C121" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="D121" s="43">
+      <c r="D121" s="37">
         <v>21607</v>
       </c>
     </row>
@@ -29368,7 +29287,7 @@
       <c r="C122" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D122" s="43">
+      <c r="D122" s="37">
         <v>6176</v>
       </c>
     </row>
@@ -29379,7 +29298,7 @@
       <c r="C123" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="D123" s="43">
+      <c r="D123" s="37">
         <v>26748</v>
       </c>
     </row>
@@ -29390,7 +29309,7 @@
       <c r="C124" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D124" s="43">
+      <c r="D124" s="37">
         <v>4893</v>
       </c>
     </row>
@@ -29401,7 +29320,7 @@
       <c r="C125" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D125" s="43">
+      <c r="D125" s="37">
         <v>2064</v>
       </c>
     </row>
@@ -29412,7 +29331,7 @@
       <c r="C126" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="D126" s="43">
+      <c r="D126" s="37">
         <v>21334</v>
       </c>
     </row>
@@ -29423,7 +29342,7 @@
       <c r="C127" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="D127" s="43">
+      <c r="D127" s="37">
         <v>4558</v>
       </c>
     </row>
@@ -29434,7 +29353,7 @@
       <c r="C128" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="D128" s="43">
+      <c r="D128" s="37">
         <v>32747</v>
       </c>
     </row>
@@ -29445,7 +29364,7 @@
       <c r="C129" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="D129" s="43">
+      <c r="D129" s="37">
         <v>6678</v>
       </c>
     </row>
@@ -29456,7 +29375,7 @@
       <c r="C130" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="D130" s="43">
+      <c r="D130" s="37">
         <v>6497</v>
       </c>
     </row>
@@ -29467,7 +29386,7 @@
       <c r="C131" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="D131" s="43">
+      <c r="D131" s="37">
         <v>8423</v>
       </c>
     </row>
@@ -29478,7 +29397,7 @@
       <c r="C132" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="D132" s="43">
+      <c r="D132" s="37">
         <v>8202</v>
       </c>
     </row>
@@ -29489,7 +29408,7 @@
       <c r="C133" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="D133" s="43">
+      <c r="D133" s="37">
         <v>9125</v>
       </c>
     </row>
@@ -29500,7 +29419,7 @@
       <c r="C134" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="D134" s="43">
+      <c r="D134" s="37">
         <v>15140</v>
       </c>
     </row>
@@ -29511,7 +29430,7 @@
       <c r="C135" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="D135" s="43">
+      <c r="D135" s="37">
         <v>3683</v>
       </c>
     </row>
@@ -29522,7 +29441,7 @@
       <c r="C136" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="D136" s="43">
+      <c r="D136" s="37">
         <v>4321</v>
       </c>
     </row>
@@ -29533,7 +29452,7 @@
       <c r="C137" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="D137" s="43">
+      <c r="D137" s="37">
         <v>27555</v>
       </c>
     </row>
@@ -29544,7 +29463,7 @@
       <c r="C138" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D138" s="43">
+      <c r="D138" s="37">
         <v>10106</v>
       </c>
     </row>
@@ -29555,7 +29474,7 @@
       <c r="C139" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="D139" s="43">
+      <c r="D139" s="37">
         <v>16822</v>
       </c>
     </row>
@@ -29566,7 +29485,7 @@
       <c r="C140" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="D140" s="43">
+      <c r="D140" s="37">
         <v>27754</v>
       </c>
     </row>
@@ -29577,7 +29496,7 @@
       <c r="C141" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="D141" s="43">
+      <c r="D141" s="37">
         <v>3250</v>
       </c>
     </row>
@@ -29588,7 +29507,7 @@
       <c r="C142" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="D142" s="43">
+      <c r="D142" s="37">
         <v>5866</v>
       </c>
     </row>
@@ -29599,7 +29518,7 @@
       <c r="C143" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D143" s="43">
+      <c r="D143" s="37">
         <v>2845</v>
       </c>
     </row>
@@ -29610,7 +29529,7 @@
       <c r="C144" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="D144" s="43">
+      <c r="D144" s="37">
         <v>22220</v>
       </c>
     </row>
@@ -29621,7 +29540,7 @@
       <c r="C145" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D145" s="43">
+      <c r="D145" s="37">
         <v>11611</v>
       </c>
     </row>
@@ -29632,7 +29551,7 @@
       <c r="C146" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="D146" s="43">
+      <c r="D146" s="37">
         <v>12846</v>
       </c>
     </row>
@@ -29643,7 +29562,7 @@
       <c r="C147" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="D147" s="43">
+      <c r="D147" s="37">
         <v>8291</v>
       </c>
     </row>
@@ -29654,7 +29573,7 @@
       <c r="C148" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D148" s="43">
+      <c r="D148" s="37">
         <v>10778</v>
       </c>
     </row>
@@ -29665,7 +29584,7 @@
       <c r="C149" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="D149" s="43">
+      <c r="D149" s="37">
         <v>11850</v>
       </c>
     </row>
@@ -29676,7 +29595,7 @@
       <c r="C150" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D150" s="43">
+      <c r="D150" s="37">
         <v>33887</v>
       </c>
     </row>
@@ -29687,7 +29606,7 @@
       <c r="C151" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="D151" s="43">
+      <c r="D151" s="37">
         <v>6694</v>
       </c>
     </row>
@@ -29698,7 +29617,7 @@
       <c r="C152" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="D152" s="43">
+      <c r="D152" s="37">
         <v>57088</v>
       </c>
     </row>
@@ -29709,7 +29628,7 @@
       <c r="C153" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="D153" s="43">
+      <c r="D153" s="37">
         <v>20663</v>
       </c>
     </row>
@@ -29720,7 +29639,7 @@
       <c r="C154" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="D154" s="43">
+      <c r="D154" s="37">
         <v>32586</v>
       </c>
     </row>
@@ -29731,7 +29650,7 @@
       <c r="C155" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="D155" s="43">
+      <c r="D155" s="37">
         <v>28912</v>
       </c>
     </row>
@@ -29742,7 +29661,7 @@
       <c r="C156" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="D156" s="43">
+      <c r="D156" s="37">
         <v>47917</v>
       </c>
     </row>
@@ -29753,7 +29672,7 @@
       <c r="C157" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="D157" s="43">
+      <c r="D157" s="37">
         <v>2618</v>
       </c>
     </row>
@@ -29764,7 +29683,7 @@
       <c r="C158" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="D158" s="43">
+      <c r="D158" s="37">
         <v>11888</v>
       </c>
     </row>
@@ -29775,7 +29694,7 @@
       <c r="C159" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="D159" s="43">
+      <c r="D159" s="37">
         <v>5417</v>
       </c>
     </row>
@@ -29786,7 +29705,7 @@
       <c r="C160" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="D160" s="43">
+      <c r="D160" s="37">
         <v>11523</v>
       </c>
     </row>
@@ -29797,7 +29716,7 @@
       <c r="C161" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="D161" s="43">
+      <c r="D161" s="37">
         <v>17491</v>
       </c>
     </row>
@@ -29808,7 +29727,7 @@
       <c r="C162" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="D162" s="43">
+      <c r="D162" s="37">
         <v>10002</v>
       </c>
     </row>
@@ -29819,7 +29738,7 @@
       <c r="C163" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="D163" s="43">
+      <c r="D163" s="37">
         <v>12072</v>
       </c>
     </row>
@@ -29830,7 +29749,7 @@
       <c r="C164" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="D164" s="43">
+      <c r="D164" s="37">
         <v>2914</v>
       </c>
     </row>
@@ -29841,7 +29760,7 @@
       <c r="C165" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="D165" s="43">
+      <c r="D165" s="37">
         <v>2916</v>
       </c>
     </row>
@@ -29852,7 +29771,7 @@
       <c r="C166" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="D166" s="43">
+      <c r="D166" s="37">
         <v>1052</v>
       </c>
     </row>
@@ -29863,7 +29782,7 @@
       <c r="C167" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="D167" s="43">
+      <c r="D167" s="37">
         <v>11324</v>
       </c>
     </row>
@@ -29874,7 +29793,7 @@
       <c r="C168" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="D168" s="43">
+      <c r="D168" s="37">
         <v>3539</v>
       </c>
     </row>
@@ -29885,7 +29804,7 @@
       <c r="C169" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="D169" s="43">
+      <c r="D169" s="37">
         <v>4775</v>
       </c>
     </row>
@@ -29896,7 +29815,7 @@
       <c r="C170" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="43">
+      <c r="D170" s="37">
         <v>3881</v>
       </c>
     </row>
@@ -29907,7 +29826,7 @@
       <c r="C171" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="D171" s="43">
+      <c r="D171" s="37">
         <v>3862</v>
       </c>
     </row>
@@ -29918,7 +29837,7 @@
       <c r="C172" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="D172" s="43">
+      <c r="D172" s="37">
         <v>5125</v>
       </c>
     </row>
@@ -29929,7 +29848,7 @@
       <c r="C173" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="D173" s="43">
+      <c r="D173" s="37">
         <v>5491</v>
       </c>
     </row>
@@ -29940,7 +29859,7 @@
       <c r="C174" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="D174" s="43">
+      <c r="D174" s="37">
         <v>10506</v>
       </c>
     </row>
@@ -29951,7 +29870,7 @@
       <c r="C175" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="D175" s="43">
+      <c r="D175" s="37">
         <v>11675</v>
       </c>
     </row>
@@ -29962,7 +29881,7 @@
       <c r="C176" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D176" s="43">
+      <c r="D176" s="37">
         <v>10352</v>
       </c>
     </row>
@@ -29973,7 +29892,7 @@
       <c r="C177" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="D177" s="43">
+      <c r="D177" s="37">
         <v>8071</v>
       </c>
     </row>
@@ -29984,7 +29903,7 @@
       <c r="C178" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D178" s="43">
+      <c r="D178" s="37">
         <v>3739</v>
       </c>
     </row>
@@ -29995,7 +29914,7 @@
       <c r="C179" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="D179" s="43">
+      <c r="D179" s="37">
         <v>14491</v>
       </c>
     </row>
@@ -30006,7 +29925,7 @@
       <c r="C180" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="D180" s="43">
+      <c r="D180" s="37">
         <v>13999</v>
       </c>
     </row>
@@ -30017,7 +29936,7 @@
       <c r="C181" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="D181" s="43">
+      <c r="D181" s="37">
         <v>3310</v>
       </c>
     </row>
@@ -30028,7 +29947,7 @@
       <c r="C182" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="D182" s="43">
+      <c r="D182" s="37">
         <v>10808</v>
       </c>
     </row>
@@ -30039,7 +29958,7 @@
       <c r="C183" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="D183" s="43">
+      <c r="D183" s="37">
         <v>67427</v>
       </c>
     </row>
@@ -30050,7 +29969,7 @@
       <c r="C184" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="D184" s="43">
+      <c r="D184" s="37">
         <v>267597</v>
       </c>
     </row>
@@ -30061,7 +29980,7 @@
       <c r="C185" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="D185" s="43">
+      <c r="D185" s="37">
         <v>35528</v>
       </c>
     </row>
@@ -30072,7 +29991,7 @@
       <c r="C186" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="D186" s="43">
+      <c r="D186" s="37">
         <v>14072</v>
       </c>
     </row>
@@ -30083,7 +30002,7 @@
       <c r="C187" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="D187" s="43">
+      <c r="D187" s="37">
         <v>10276</v>
       </c>
     </row>
@@ -30094,7 +30013,7 @@
       <c r="C188" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="D188" s="43">
+      <c r="D188" s="37">
         <v>4256</v>
       </c>
     </row>
@@ -30105,7 +30024,7 @@
       <c r="C189" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="D189" s="43">
+      <c r="D189" s="37">
         <v>14299</v>
       </c>
     </row>
@@ -30116,7 +30035,7 @@
       <c r="C190" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="D190" s="43">
+      <c r="D190" s="37">
         <v>34899</v>
       </c>
     </row>
@@ -30127,7 +30046,7 @@
       <c r="C191" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="D191" s="43">
+      <c r="D191" s="37">
         <v>25253</v>
       </c>
     </row>
@@ -30138,7 +30057,7 @@
       <c r="C192" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="D192" s="43">
+      <c r="D192" s="37">
         <v>38361</v>
       </c>
     </row>
@@ -30149,7 +30068,7 @@
       <c r="C193" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="D193" s="43">
+      <c r="D193" s="37">
         <v>32361</v>
       </c>
     </row>
@@ -30160,7 +30079,7 @@
       <c r="C194" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="D194" s="43">
+      <c r="D194" s="37">
         <v>37764</v>
       </c>
     </row>
@@ -30171,7 +30090,7 @@
       <c r="C195" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="D195" s="43">
+      <c r="D195" s="37">
         <v>68959</v>
       </c>
     </row>
@@ -30182,7 +30101,7 @@
       <c r="C196" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="D196" s="43">
+      <c r="D196" s="37">
         <v>26026</v>
       </c>
     </row>
@@ -30193,7 +30112,7 @@
       <c r="C197" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="D197" s="43">
+      <c r="D197" s="37">
         <v>137534</v>
       </c>
     </row>
@@ -30204,7 +30123,7 @@
       <c r="C198" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="D198" s="43">
+      <c r="D198" s="37">
         <v>50032</v>
       </c>
     </row>
@@ -30215,7 +30134,7 @@
       <c r="C199" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="D199" s="43">
+      <c r="D199" s="37">
         <v>40127</v>
       </c>
     </row>
@@ -30226,7 +30145,7 @@
       <c r="C200" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="D200" s="43">
+      <c r="D200" s="37">
         <v>21738</v>
       </c>
     </row>
@@ -30237,7 +30156,7 @@
       <c r="C201" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D201" s="43">
+      <c r="D201" s="37">
         <v>5902</v>
       </c>
     </row>
@@ -30248,7 +30167,7 @@
       <c r="C202" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="D202" s="43">
+      <c r="D202" s="37">
         <v>21968</v>
       </c>
     </row>
@@ -30259,7 +30178,7 @@
       <c r="C203" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="D203" s="43">
+      <c r="D203" s="37">
         <v>26079</v>
       </c>
     </row>
@@ -30270,7 +30189,7 @@
       <c r="C204" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="D204" s="43">
+      <c r="D204" s="37">
         <v>9645</v>
       </c>
     </row>
@@ -30281,7 +30200,7 @@
       <c r="C205" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="D205" s="43">
+      <c r="D205" s="37">
         <v>6712</v>
       </c>
     </row>
@@ -30292,7 +30211,7 @@
       <c r="C206" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="D206" s="43">
+      <c r="D206" s="37">
         <v>4176</v>
       </c>
     </row>
@@ -30303,7 +30222,7 @@
       <c r="C207" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="D207" s="43">
+      <c r="D207" s="37">
         <v>9213</v>
       </c>
     </row>
@@ -30314,7 +30233,7 @@
       <c r="C208" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="D208" s="43">
+      <c r="D208" s="37">
         <v>15041</v>
       </c>
     </row>
@@ -30325,7 +30244,7 @@
       <c r="C209" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="D209" s="43">
+      <c r="D209" s="37">
         <v>11419</v>
       </c>
     </row>
@@ -30336,7 +30255,7 @@
       <c r="C210" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="D210" s="43">
+      <c r="D210" s="37">
         <v>4252</v>
       </c>
     </row>
@@ -30347,7 +30266,7 @@
       <c r="C211" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="D211" s="43">
+      <c r="D211" s="37">
         <v>4806</v>
       </c>
     </row>
@@ -30358,7 +30277,7 @@
       <c r="C212" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="D212" s="43">
+      <c r="D212" s="37">
         <v>3237</v>
       </c>
     </row>
@@ -30369,7 +30288,7 @@
       <c r="C213" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="D213" s="43">
+      <c r="D213" s="37">
         <v>7431</v>
       </c>
     </row>
@@ -30380,7 +30299,7 @@
       <c r="C214" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="D214" s="43">
+      <c r="D214" s="37">
         <v>17274</v>
       </c>
     </row>
@@ -30391,7 +30310,7 @@
       <c r="C215" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="D215" s="43">
+      <c r="D215" s="37">
         <v>10328</v>
       </c>
     </row>
@@ -30402,7 +30321,7 @@
       <c r="C216" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="D216" s="43">
+      <c r="D216" s="37">
         <v>43172</v>
       </c>
     </row>
@@ -30413,7 +30332,7 @@
       <c r="C217" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="D217" s="43">
+      <c r="D217" s="37">
         <v>36144</v>
       </c>
     </row>
@@ -30424,7 +30343,7 @@
       <c r="C218" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="D218" s="43">
+      <c r="D218" s="37">
         <v>4994</v>
       </c>
     </row>
@@ -30435,7 +30354,7 @@
       <c r="C219" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="D219" s="43">
+      <c r="D219" s="37">
         <v>8110</v>
       </c>
     </row>
@@ -30446,7 +30365,7 @@
       <c r="C220" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="D220" s="43">
+      <c r="D220" s="37">
         <v>5774</v>
       </c>
     </row>
@@ -30457,7 +30376,7 @@
       <c r="C221" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="D221" s="43">
+      <c r="D221" s="37">
         <v>8080</v>
       </c>
     </row>
@@ -30468,7 +30387,7 @@
       <c r="C222" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="D222" s="43">
+      <c r="D222" s="37">
         <v>10355</v>
       </c>
     </row>
@@ -30479,7 +30398,7 @@
       <c r="C223" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="D223" s="43">
+      <c r="D223" s="37">
         <v>1624</v>
       </c>
     </row>
@@ -30490,7 +30409,7 @@
       <c r="C224" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="D224" s="43">
+      <c r="D224" s="37">
         <v>3179</v>
       </c>
     </row>
@@ -30501,7 +30420,7 @@
       <c r="C225" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="D225" s="43">
+      <c r="D225" s="37">
         <v>13946</v>
       </c>
     </row>
@@ -30512,7 +30431,7 @@
       <c r="C226" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="D226" s="43">
+      <c r="D226" s="37">
         <v>30899</v>
       </c>
     </row>
@@ -30523,7 +30442,7 @@
       <c r="C227" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="D227" s="43">
+      <c r="D227" s="37">
         <v>22672</v>
       </c>
     </row>
@@ -30534,7 +30453,7 @@
       <c r="C228" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="D228" s="43">
+      <c r="D228" s="37">
         <v>34308</v>
       </c>
     </row>
@@ -30545,7 +30464,7 @@
       <c r="C229" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="D229" s="43">
+      <c r="D229" s="37">
         <v>19639</v>
       </c>
     </row>
@@ -30556,7 +30475,7 @@
       <c r="C230" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="D230" s="43">
+      <c r="D230" s="37">
         <v>10510</v>
       </c>
     </row>
@@ -30567,7 +30486,7 @@
       <c r="C231" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="D231" s="43">
+      <c r="D231" s="37">
         <v>12012</v>
       </c>
     </row>
@@ -30578,7 +30497,7 @@
       <c r="C232" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="D232" s="43">
+      <c r="D232" s="37">
         <v>35390</v>
       </c>
     </row>
@@ -30589,7 +30508,7 @@
       <c r="C233" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="D233" s="43">
+      <c r="D233" s="37">
         <v>9839</v>
       </c>
     </row>
@@ -30600,7 +30519,7 @@
       <c r="C234" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="D234" s="43">
+      <c r="D234" s="37">
         <v>34461</v>
       </c>
     </row>
@@ -30611,7 +30530,7 @@
       <c r="C235" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="D235" s="43">
+      <c r="D235" s="37">
         <v>32490</v>
       </c>
     </row>
@@ -30622,7 +30541,7 @@
       <c r="C236" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="D236" s="43">
+      <c r="D236" s="37">
         <v>35271</v>
       </c>
     </row>
@@ -30633,7 +30552,7 @@
       <c r="C237" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="D237" s="43">
+      <c r="D237" s="37">
         <v>44820</v>
       </c>
     </row>
@@ -30644,7 +30563,7 @@
       <c r="C238" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="D238" s="43">
+      <c r="D238" s="37">
         <v>24834</v>
       </c>
     </row>
@@ -30655,7 +30574,7 @@
       <c r="C239" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="D239" s="43">
+      <c r="D239" s="37">
         <v>42935</v>
       </c>
     </row>
@@ -30666,7 +30585,7 @@
       <c r="C240" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="D240" s="43">
+      <c r="D240" s="37">
         <v>7409</v>
       </c>
     </row>
@@ -30677,7 +30596,7 @@
       <c r="C241" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="D241" s="43">
+      <c r="D241" s="37">
         <v>63516</v>
       </c>
     </row>
@@ -30688,7 +30607,7 @@
       <c r="C242" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="D242" s="43">
+      <c r="D242" s="37">
         <v>151763</v>
       </c>
     </row>
@@ -30699,7 +30618,7 @@
       <c r="C243" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="D243" s="43">
+      <c r="D243" s="37">
         <v>13437</v>
       </c>
     </row>
@@ -30710,7 +30629,7 @@
       <c r="C244" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="D244" s="43">
+      <c r="D244" s="37">
         <v>41588</v>
       </c>
     </row>
@@ -30721,7 +30640,7 @@
       <c r="C245" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="D245" s="43">
+      <c r="D245" s="37">
         <v>28299</v>
       </c>
     </row>
@@ -30732,7 +30651,7 @@
       <c r="C246" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="D246" s="43">
+      <c r="D246" s="37">
         <v>35923</v>
       </c>
     </row>
@@ -30743,7 +30662,7 @@
       <c r="C247" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="D247" s="43">
+      <c r="D247" s="37">
         <v>13989</v>
       </c>
     </row>
@@ -30754,7 +30673,7 @@
       <c r="C248" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="D248" s="43">
+      <c r="D248" s="37">
         <v>10059</v>
       </c>
     </row>
@@ -30765,7 +30684,7 @@
       <c r="C249" s="23" t="s">
         <v>691</v>
       </c>
-      <c r="D249" s="43">
+      <c r="D249" s="37">
         <v>18967</v>
       </c>
     </row>
@@ -30776,7 +30695,7 @@
       <c r="C250" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="D250" s="43">
+      <c r="D250" s="37">
         <v>26996</v>
       </c>
     </row>
@@ -30787,7 +30706,7 @@
       <c r="C251" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="D251" s="43">
+      <c r="D251" s="37">
         <v>47738</v>
       </c>
     </row>
@@ -30798,7 +30717,7 @@
       <c r="C252" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="D252" s="43">
+      <c r="D252" s="37">
         <v>33801</v>
       </c>
     </row>
@@ -30809,7 +30728,7 @@
       <c r="C253" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="D253" s="43">
+      <c r="D253" s="37">
         <v>20987</v>
       </c>
     </row>
@@ -30820,7 +30739,7 @@
       <c r="C254" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="D254" s="43">
+      <c r="D254" s="37">
         <v>17027</v>
       </c>
     </row>
@@ -30831,7 +30750,7 @@
       <c r="C255" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="D255" s="43">
+      <c r="D255" s="37">
         <v>55533</v>
       </c>
     </row>
@@ -30842,7 +30761,7 @@
       <c r="C256" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="D256" s="43">
+      <c r="D256" s="37">
         <v>7797</v>
       </c>
     </row>
@@ -30853,7 +30772,7 @@
       <c r="C257" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="D257" s="43">
+      <c r="D257" s="37">
         <v>13469</v>
       </c>
     </row>
@@ -30864,7 +30783,7 @@
       <c r="C258" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="D258" s="43">
+      <c r="D258" s="37">
         <v>7913</v>
       </c>
     </row>
@@ -30875,7 +30794,7 @@
       <c r="C259" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="D259" s="43">
+      <c r="D259" s="37">
         <v>9793</v>
       </c>
     </row>
@@ -30886,7 +30805,7 @@
       <c r="C260" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="D260" s="43">
+      <c r="D260" s="37">
         <v>4432</v>
       </c>
     </row>
@@ -30897,7 +30816,7 @@
       <c r="C261" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="D261" s="43">
+      <c r="D261" s="37">
         <v>10139</v>
       </c>
     </row>
@@ -30908,7 +30827,7 @@
       <c r="C262" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="D262" s="43">
+      <c r="D262" s="37">
         <v>11575</v>
       </c>
     </row>
@@ -30919,7 +30838,7 @@
       <c r="C263" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="D263" s="43">
+      <c r="D263" s="37">
         <v>7059</v>
       </c>
     </row>
@@ -30930,7 +30849,7 @@
       <c r="C264" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="D264" s="43">
+      <c r="D264" s="37">
         <v>6202</v>
       </c>
     </row>
@@ -30941,7 +30860,7 @@
       <c r="C265" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="D265" s="43">
+      <c r="D265" s="37">
         <v>44437</v>
       </c>
     </row>
@@ -30952,7 +30871,7 @@
       <c r="C266" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="D266" s="43">
+      <c r="D266" s="37">
         <v>29952</v>
       </c>
     </row>
@@ -30963,7 +30882,7 @@
       <c r="C267" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="D267" s="43">
+      <c r="D267" s="37">
         <v>59159</v>
       </c>
     </row>
@@ -30974,7 +30893,7 @@
       <c r="C268" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="D268" s="43">
+      <c r="D268" s="37">
         <v>20873</v>
       </c>
     </row>
@@ -30985,7 +30904,7 @@
       <c r="C269" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="D269" s="43">
+      <c r="D269" s="37">
         <v>6152</v>
       </c>
     </row>
@@ -30996,7 +30915,7 @@
       <c r="C270" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="D270" s="43">
+      <c r="D270" s="37">
         <v>11383</v>
       </c>
     </row>
@@ -31007,7 +30926,7 @@
       <c r="C271" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="D271" s="43">
+      <c r="D271" s="37">
         <v>4732</v>
       </c>
     </row>
@@ -31018,359 +30937,416 @@
       <c r="C272" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="D272" s="43">
+      <c r="D272" s="37">
         <v>78433</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="23" t="s">
         <v>738</v>
       </c>
       <c r="C273" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="D273" s="43">
+      <c r="D273" s="37">
         <v>3763</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="23" t="s">
         <v>740</v>
       </c>
       <c r="C274" s="23" t="s">
         <v>741</v>
       </c>
-      <c r="D274" s="43">
+      <c r="D274" s="37">
         <v>457760</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="23" t="s">
         <v>742</v>
       </c>
       <c r="C275" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="D275" s="43">
+      <c r="D275" s="37">
         <v>13419</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="23" t="s">
         <v>744</v>
       </c>
       <c r="C276" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="D276" s="43">
+      <c r="D276" s="37">
         <v>9115</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="23" t="s">
         <v>746</v>
       </c>
       <c r="C277" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="D277" s="43">
+      <c r="D277" s="37">
         <v>20551</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="C278" s="44" t="s">
+      <c r="C278" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="D278" s="43">
+      <c r="D278" s="37">
         <v>49895</v>
       </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="C279" s="44" t="s">
+      <c r="C279" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="D279" s="43">
+      <c r="D279" s="37">
         <v>7020</v>
       </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="C280" s="44" t="s">
+      <c r="C280" s="38" t="s">
         <v>753</v>
       </c>
-      <c r="D280" s="43">
+      <c r="D280" s="37">
         <v>6964</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="C281" s="44" t="s">
+      <c r="C281" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="D281" s="43">
+      <c r="D281" s="37">
         <v>31879</v>
       </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="C282" s="44" t="s">
+      <c r="C282" s="38" t="s">
         <v>757</v>
       </c>
-      <c r="D282" s="43">
+      <c r="D282" s="37">
         <v>117887</v>
       </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="C283" s="44" t="s">
+      <c r="C283" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="D283" s="43">
+      <c r="D283" s="37">
         <v>85442</v>
       </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="C284" s="44" t="s">
+      <c r="C284" s="38" t="s">
         <v>761</v>
       </c>
-      <c r="D284" s="43">
+      <c r="D284" s="37">
         <v>14641</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="C285" s="45" t="s">
+      <c r="C285" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="D285" s="43">
+      <c r="D285" s="37">
         <v>14749</v>
       </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="23" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="C286" s="45" t="s">
+      <c r="C286" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="D286" s="43">
+      <c r="D286" s="37">
         <v>208145</v>
       </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="23" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="C287" s="45" t="s">
+      <c r="C287" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="D287" s="43">
+      <c r="D287" s="37">
         <v>15995</v>
       </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="23" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="C288" s="45" t="s">
+      <c r="C288" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="D288" s="43">
+      <c r="D288" s="37">
         <v>30712</v>
       </c>
-    </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="23" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="C289" s="44" t="s">
+      <c r="C289" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="D289" s="43">
+      <c r="D289" s="37">
         <v>19911</v>
       </c>
-    </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="C290" s="44" t="s">
+      <c r="C290" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="D290" s="43">
+      <c r="D290" s="37">
         <v>15067</v>
       </c>
-    </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="C291" s="44" t="s">
+      <c r="C291" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="D291" s="43">
+      <c r="D291" s="37">
         <v>27773</v>
       </c>
-    </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="C292" s="44" t="s">
+      <c r="C292" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="D292" s="43">
+      <c r="D292" s="37">
         <v>12847</v>
       </c>
-    </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="C293" s="44" t="s">
+      <c r="C293" s="38" t="s">
         <v>779</v>
       </c>
-      <c r="D293" s="43">
+      <c r="D293" s="37">
         <v>38140</v>
       </c>
-    </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="C294" s="44" t="s">
+      <c r="C294" s="38" t="s">
         <v>781</v>
       </c>
-      <c r="D294" s="43">
+      <c r="D294" s="37">
         <v>42475</v>
       </c>
-    </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="C295" s="44" t="s">
+      <c r="C295" s="38" t="s">
         <v>783</v>
       </c>
-      <c r="D295" s="43">
+      <c r="D295" s="37">
         <v>5006</v>
       </c>
-    </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="C296" s="44" t="s">
+      <c r="C296" s="38" t="s">
         <v>785</v>
       </c>
-      <c r="D296" s="43">
+      <c r="D296" s="37">
         <v>40978</v>
       </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="23" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="23" t="s">
         <v>786</v>
       </c>
       <c r="C297" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="D297" s="43">
+      <c r="D297" s="37">
         <v>40444</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="23" t="s">
         <v>788</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="D298" s="43">
+      <c r="D298" s="37">
         <v>17753</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="23" t="s">
         <v>790</v>
       </c>
       <c r="C299" s="23" t="s">
         <v>791</v>
       </c>
-      <c r="D299" s="43">
+      <c r="D299" s="37">
         <v>3844</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="23" t="s">
         <v>792</v>
       </c>
       <c r="C300" s="23" t="s">
         <v>793</v>
       </c>
-      <c r="D300" s="43">
+      <c r="D300" s="37">
         <v>8354</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="23" t="s">
         <v>794</v>
       </c>
       <c r="C301" s="23" t="s">
         <v>795</v>
       </c>
-      <c r="D301" s="43">
+      <c r="D301" s="37">
         <v>10613</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="23" t="s">
         <v>796</v>
       </c>
       <c r="C302" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="D302" s="43">
+      <c r="D302" s="37">
         <v>11961</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="23" t="s">
         <v>798</v>
       </c>
       <c r="C303" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="D303" s="43">
+      <c r="D303" s="37">
         <v>96787</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="23" t="s">
         <v>800</v>
       </c>
       <c r="C304" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="D304" s="43">
+      <c r="D304" s="37">
         <v>20488</v>
       </c>
     </row>
@@ -31381,7 +31357,7 @@
       <c r="C305" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="D305" s="43">
+      <c r="D305" s="37">
         <v>5369</v>
       </c>
     </row>
@@ -31392,7 +31368,7 @@
       <c r="C306" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="D306" s="43">
+      <c r="D306" s="37">
         <v>17928</v>
       </c>
     </row>
@@ -31403,7 +31379,7 @@
       <c r="C307" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="D307" s="43">
+      <c r="D307" s="37">
         <v>124484</v>
       </c>
     </row>
@@ -31414,7 +31390,7 @@
       <c r="C308" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="D308" s="43">
+      <c r="D308" s="37">
         <v>219053</v>
       </c>
     </row>
@@ -31425,7 +31401,7 @@
       <c r="C309" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="D309" s="43">
+      <c r="D309" s="37">
         <v>171121</v>
       </c>
     </row>
@@ -31436,7 +31412,7 @@
       <c r="C310" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="D310" s="43">
+      <c r="D310" s="37">
         <v>179070</v>
       </c>
     </row>
@@ -31447,7 +31423,7 @@
       <c r="C311" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="D311" s="43">
+      <c r="D311" s="37">
         <v>242634</v>
       </c>
     </row>
@@ -31458,7 +31434,7 @@
       <c r="C312" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="D312" s="43">
+      <c r="D312" s="37">
         <v>176440</v>
       </c>
     </row>
@@ -31469,7 +31445,7 @@
       <c r="C313" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="D313" s="43">
+      <c r="D313" s="37">
         <v>148392</v>
       </c>
     </row>
@@ -31480,7 +31456,7 @@
       <c r="C314" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="D314" s="43">
+      <c r="D314" s="37">
         <v>146367</v>
       </c>
     </row>
@@ -31491,7 +31467,7 @@
       <c r="C315" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="D315" s="43">
+      <c r="D315" s="37">
         <v>322061</v>
       </c>
     </row>
@@ -31502,7 +31478,7 @@
       <c r="C316" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="D316" s="43">
+      <c r="D316" s="37">
         <v>83011</v>
       </c>
     </row>
@@ -31513,7 +31489,7 @@
       <c r="C317" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="D317" s="43">
+      <c r="D317" s="37">
         <v>38123</v>
       </c>
     </row>
@@ -31524,7 +31500,7 @@
       <c r="C318" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="D318" s="43">
+      <c r="D318" s="37">
         <v>279078</v>
       </c>
     </row>
@@ -31535,7 +31511,7 @@
       <c r="C319" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="D319" s="43">
+      <c r="D319" s="37">
         <v>227964</v>
       </c>
     </row>
@@ -31546,7 +31522,7 @@
       <c r="C320" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="D320" s="43">
+      <c r="D320" s="37">
         <v>230215</v>
       </c>
     </row>
@@ -31557,7 +31533,7 @@
       <c r="C321" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="D321" s="43">
+      <c r="D321" s="37">
         <v>140227</v>
       </c>
     </row>
@@ -31568,7 +31544,7 @@
       <c r="C322" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="D322" s="43">
+      <c r="D322" s="37">
         <v>101522</v>
       </c>
     </row>
@@ -31579,7 +31555,7 @@
       <c r="C323" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="D323" s="43">
+      <c r="D323" s="37">
         <v>92474</v>
       </c>
     </row>
@@ -31590,7 +31566,7 @@
       <c r="C324" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="D324" s="43">
+      <c r="D324" s="37">
         <v>137915</v>
       </c>
     </row>
@@ -31601,7 +31577,7 @@
       <c r="C325" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="D325" s="43">
+      <c r="D325" s="37">
         <v>229646</v>
       </c>
     </row>
@@ -31612,7 +31588,7 @@
       <c r="C326" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="D326" s="43">
+      <c r="D326" s="37">
         <v>57722</v>
       </c>
     </row>
@@ -31623,7 +31599,7 @@
       <c r="C327" s="23" t="s">
         <v>847</v>
       </c>
-      <c r="D327" s="43">
+      <c r="D327" s="37">
         <v>35581</v>
       </c>
     </row>
@@ -31634,7 +31610,7 @@
       <c r="C328" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D328" s="43">
+      <c r="D328" s="37">
         <v>43933</v>
       </c>
     </row>
@@ -31645,7 +31621,7 @@
       <c r="C329" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="D329" s="43">
+      <c r="D329" s="37">
         <v>68922</v>
       </c>
     </row>
@@ -31656,7 +31632,7 @@
       <c r="C330" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="D330" s="43">
+      <c r="D330" s="37">
         <v>211318</v>
       </c>
     </row>
@@ -31667,7 +31643,7 @@
       <c r="C331" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="D331" s="43">
+      <c r="D331" s="37">
         <v>82025</v>
       </c>
     </row>
@@ -31678,7 +31654,7 @@
       <c r="C332" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="D332" s="43">
+      <c r="D332" s="37">
         <v>47194</v>
       </c>
     </row>
@@ -31689,7 +31665,7 @@
       <c r="C333" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="D333" s="43">
+      <c r="D333" s="37">
         <v>332550</v>
       </c>
     </row>
@@ -31700,7 +31676,7 @@
       <c r="C334" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="D334" s="43">
+      <c r="D334" s="37">
         <v>65769</v>
       </c>
     </row>
@@ -31711,7 +31687,7 @@
       <c r="C335" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="D335" s="43">
+      <c r="D335" s="37">
         <v>43699</v>
       </c>
     </row>
@@ -31722,7 +31698,7 @@
       <c r="C336" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="D336" s="43">
+      <c r="D336" s="37">
         <v>137453</v>
       </c>
     </row>
@@ -31733,7 +31709,7 @@
       <c r="C337" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="D337" s="43">
+      <c r="D337" s="37">
         <v>80430</v>
       </c>
     </row>
@@ -31744,7 +31720,7 @@
       <c r="C338" s="23" t="s">
         <v>869</v>
       </c>
-      <c r="D338" s="43">
+      <c r="D338" s="37">
         <v>120074</v>
       </c>
     </row>
@@ -31755,7 +31731,7 @@
       <c r="C339" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="D339" s="43">
+      <c r="D339" s="37">
         <v>27110</v>
       </c>
     </row>
@@ -31766,7 +31742,7 @@
       <c r="C340" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="D340" s="43">
+      <c r="D340" s="37">
         <v>29340</v>
       </c>
     </row>
@@ -31777,7 +31753,7 @@
       <c r="C341" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D341" s="43">
+      <c r="D341" s="37">
         <v>38375</v>
       </c>
     </row>
@@ -31788,7 +31764,7 @@
       <c r="C342" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="D342" s="43">
+      <c r="D342" s="37">
         <v>14438</v>
       </c>
     </row>
@@ -31799,7 +31775,7 @@
       <c r="C343" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="D343" s="43">
+      <c r="D343" s="37">
         <v>212383</v>
       </c>
     </row>
@@ -31810,7 +31786,7 @@
       <c r="C344" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="D344" s="43">
+      <c r="D344" s="37">
         <v>126697</v>
       </c>
     </row>
@@ -31821,7 +31797,7 @@
       <c r="C345" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="D345" s="43">
+      <c r="D345" s="37">
         <v>16643</v>
       </c>
     </row>
@@ -31832,7 +31808,7 @@
       <c r="C346" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="D346" s="43">
+      <c r="D346" s="37">
         <v>83920</v>
       </c>
     </row>
@@ -31843,7 +31819,7 @@
       <c r="C347" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="D347" s="43">
+      <c r="D347" s="37">
         <v>97373</v>
       </c>
     </row>
@@ -31854,7 +31830,7 @@
       <c r="C348" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="D348" s="43">
+      <c r="D348" s="37">
         <v>334092</v>
       </c>
     </row>
@@ -31865,7 +31841,7 @@
       <c r="C349" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="D349" s="43">
+      <c r="D349" s="37">
         <v>261627</v>
       </c>
     </row>
@@ -31876,7 +31852,7 @@
       <c r="C350" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="D350" s="43">
+      <c r="D350" s="37">
         <v>45066</v>
       </c>
     </row>
@@ -31887,7 +31863,7 @@
       <c r="C351" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="D351" s="43">
+      <c r="D351" s="37">
         <v>148620</v>
       </c>
     </row>
@@ -31898,7 +31874,7 @@
       <c r="C352" s="23" t="s">
         <v>897</v>
       </c>
-      <c r="D352" s="43">
+      <c r="D352" s="37">
         <v>132937</v>
       </c>
     </row>
@@ -31909,7 +31885,7 @@
       <c r="C353" s="23" t="s">
         <v>899</v>
       </c>
-      <c r="D353" s="43">
+      <c r="D353" s="37">
         <v>9245</v>
       </c>
     </row>
@@ -31920,7 +31896,7 @@
       <c r="C354" s="23" t="s">
         <v>901</v>
       </c>
-      <c r="D354" s="43">
+      <c r="D354" s="37">
         <v>296293</v>
       </c>
     </row>
@@ -31931,7 +31907,7 @@
       <c r="C355" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="D355" s="43">
+      <c r="D355" s="37">
         <v>520425</v>
       </c>
     </row>
@@ -31942,7 +31918,7 @@
       <c r="C356" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="D356" s="43">
+      <c r="D356" s="37">
         <v>349439</v>
       </c>
     </row>
@@ -31953,7 +31929,7 @@
       <c r="C357" s="23" t="s">
         <v>907</v>
       </c>
-      <c r="D357" s="43">
+      <c r="D357" s="37">
         <v>218793</v>
       </c>
     </row>
@@ -31964,7 +31940,7 @@
       <c r="C358" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="D358" s="43">
+      <c r="D358" s="37">
         <v>88034</v>
       </c>
     </row>
@@ -31975,7 +31951,7 @@
       <c r="C359" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="D359" s="43">
+      <c r="D359" s="37">
         <v>586732</v>
       </c>
     </row>
@@ -31986,7 +31962,7 @@
       <c r="C360" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="D360" s="43">
+      <c r="D360" s="37">
         <v>344723</v>
       </c>
     </row>
@@ -31997,7 +31973,7 @@
       <c r="C361" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="D361" s="43">
+      <c r="D361" s="37">
         <v>163544</v>
       </c>
     </row>
@@ -32008,7 +31984,7 @@
       <c r="C362" s="23" t="s">
         <v>917</v>
       </c>
-      <c r="D362" s="43">
+      <c r="D362" s="37">
         <v>1416584</v>
       </c>
     </row>
@@ -32019,7 +31995,7 @@
       <c r="C363" s="23" t="s">
         <v>919</v>
       </c>
-      <c r="D363" s="43">
+      <c r="D363" s="37">
         <v>530391</v>
       </c>
     </row>
@@ -32030,7 +32006,7 @@
       <c r="C364" s="23" t="s">
         <v>921</v>
       </c>
-      <c r="D364" s="43">
+      <c r="D364" s="37">
         <v>1123901</v>
       </c>
     </row>
@@ -32041,7 +32017,7 @@
       <c r="C365" s="23" t="s">
         <v>923</v>
       </c>
-      <c r="D365" s="43">
+      <c r="D365" s="37">
         <v>61256</v>
       </c>
     </row>
@@ -32052,7 +32028,7 @@
       <c r="C366" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="D366" s="43">
+      <c r="D366" s="37">
         <v>77621</v>
       </c>
     </row>
@@ -32063,7 +32039,7 @@
       <c r="C367" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="D367" s="43">
+      <c r="D367" s="37">
         <v>29242</v>
       </c>
     </row>
@@ -32074,7 +32050,7 @@
       <c r="C368" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="D368" s="43">
+      <c r="D368" s="37">
         <v>161188</v>
       </c>
     </row>
@@ -32085,7 +32061,7 @@
       <c r="C369" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="D369" s="43">
+      <c r="D369" s="37">
         <v>331383</v>
       </c>
     </row>
@@ -32096,7 +32072,7 @@
       <c r="C370" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="D370" s="43">
+      <c r="D370" s="37">
         <v>155017</v>
       </c>
     </row>
@@ -32107,7 +32083,7 @@
       <c r="C371" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="D371" s="43">
+      <c r="D371" s="37">
         <v>163308</v>
       </c>
     </row>
@@ -32118,7 +32094,7 @@
       <c r="C372" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="D372" s="43">
+      <c r="D372" s="37">
         <v>63364</v>
       </c>
     </row>
@@ -32129,7 +32105,7 @@
       <c r="C373" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="D373" s="43">
+      <c r="D373" s="37">
         <v>193482</v>
       </c>
     </row>
@@ -32140,7 +32116,7 @@
       <c r="C374" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="D374" s="43">
+      <c r="D374" s="37">
         <v>311584</v>
       </c>
     </row>
@@ -32151,7 +32127,7 @@
       <c r="C375" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="D375" s="43">
+      <c r="D375" s="37">
         <v>232966</v>
       </c>
     </row>
@@ -32162,7 +32138,7 @@
       <c r="C376" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="D376" s="43">
+      <c r="D376" s="37">
         <v>49844</v>
       </c>
     </row>
@@ -32173,7 +32149,7 @@
       <c r="C377" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="D377" s="43">
+      <c r="D377" s="37">
         <v>202086</v>
       </c>
     </row>
@@ -32184,7 +32160,7 @@
       <c r="C378" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="D378" s="43">
+      <c r="D378" s="37">
         <v>125875</v>
       </c>
     </row>
@@ -32195,7 +32171,7 @@
       <c r="C379" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="D379" s="43">
+      <c r="D379" s="37">
         <v>33044</v>
       </c>
     </row>
@@ -32206,7 +32182,7 @@
       <c r="C380" s="23" t="s">
         <v>953</v>
       </c>
-      <c r="D380" s="43">
+      <c r="D380" s="37">
         <v>11848</v>
       </c>
     </row>
@@ -32217,7 +32193,7 @@
       <c r="C381" s="23" t="s">
         <v>955</v>
       </c>
-      <c r="D381" s="43">
+      <c r="D381" s="37">
         <v>36577</v>
       </c>
     </row>
@@ -32228,7 +32204,7 @@
       <c r="C382" s="23" t="s">
         <v>957</v>
       </c>
-      <c r="D382" s="43">
+      <c r="D382" s="37">
         <v>88795</v>
       </c>
     </row>
@@ -32239,7 +32215,7 @@
       <c r="C383" s="23" t="s">
         <v>959</v>
       </c>
-      <c r="D383" s="43">
+      <c r="D383" s="37">
         <v>561730</v>
       </c>
     </row>
@@ -32250,183 +32226,186 @@
       <c r="C384" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="D384" s="43">
+      <c r="D384" s="37">
         <v>330772</v>
       </c>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="23" t="s">
         <v>962</v>
       </c>
       <c r="C385" s="23" t="s">
         <v>963</v>
       </c>
-      <c r="D385" s="43">
+      <c r="D385" s="37">
         <v>171767</v>
       </c>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="23" t="s">
         <v>964</v>
       </c>
       <c r="C386" s="23" t="s">
         <v>965</v>
       </c>
-      <c r="D386" s="43">
+      <c r="D386" s="37">
         <v>56592</v>
       </c>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="23" t="s">
         <v>966</v>
       </c>
       <c r="C387" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="D387" s="43">
+      <c r="D387" s="37">
         <v>28243</v>
       </c>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C388" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="D388" s="43">
+      <c r="D388" s="37">
         <v>71905</v>
       </c>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="23" t="s">
         <v>970</v>
       </c>
       <c r="C389" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="D389" s="43">
+      <c r="D389" s="37">
         <v>44806</v>
       </c>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="23" t="s">
         <v>972</v>
       </c>
       <c r="C390" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="D390" s="43">
+      <c r="D390" s="37">
         <v>56610</v>
       </c>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="23" t="s">
         <v>974</v>
       </c>
       <c r="C391" s="23" t="s">
         <v>975</v>
       </c>
-      <c r="D391" s="43">
+      <c r="D391" s="37">
         <v>47162</v>
       </c>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="23" t="s">
         <v>976</v>
       </c>
-      <c r="C392" s="23" t="s">
+      <c r="C392" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="D392" s="43">
+      <c r="D392" s="37">
         <v>89811</v>
       </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E392" s="23" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="23" t="s">
         <v>978</v>
       </c>
       <c r="C393" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="D393" s="43">
+      <c r="D393" s="37">
         <v>43618</v>
       </c>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="23" t="s">
         <v>980</v>
       </c>
       <c r="C394" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="D394" s="43">
+      <c r="D394" s="37">
         <v>225344</v>
       </c>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="23" t="s">
         <v>982</v>
       </c>
       <c r="C395" s="23" t="s">
         <v>983</v>
       </c>
-      <c r="D395" s="43">
+      <c r="D395" s="37">
         <v>72133</v>
       </c>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="23" t="s">
         <v>984</v>
       </c>
       <c r="C396" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="D396" s="43">
+      <c r="D396" s="37">
         <v>465471</v>
       </c>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="23" t="s">
         <v>986</v>
       </c>
       <c r="C397" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="D397" s="43">
+      <c r="D397" s="37">
         <v>116720</v>
       </c>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="23" t="s">
         <v>988</v>
       </c>
       <c r="C398" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="D398" s="43">
+      <c r="D398" s="37">
         <v>99000</v>
       </c>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="23" t="s">
         <v>990</v>
       </c>
       <c r="C399" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="D399" s="43">
+      <c r="D399" s="37">
         <v>110970</v>
       </c>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="23" t="s">
         <v>992</v>
       </c>
       <c r="C400" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="D400" s="43">
+      <c r="D400" s="37">
         <v>53964</v>
       </c>
     </row>
@@ -32437,7 +32416,7 @@
       <c r="C401" s="23" t="s">
         <v>995</v>
       </c>
-      <c r="D401" s="43">
+      <c r="D401" s="37">
         <v>75155</v>
       </c>
     </row>
@@ -32448,7 +32427,7 @@
       <c r="C402" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="D402" s="43">
+      <c r="D402" s="37">
         <v>35396</v>
       </c>
     </row>
@@ -32459,7 +32438,7 @@
       <c r="C403" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="D403" s="43">
+      <c r="D403" s="37">
         <v>813054</v>
       </c>
     </row>
@@ -32470,7 +32449,7 @@
       <c r="C404" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="D404" s="43">
+      <c r="D404" s="37">
         <v>184319</v>
       </c>
     </row>
@@ -32481,7 +32460,7 @@
       <c r="C405" s="23" t="s">
         <v>1003</v>
       </c>
-      <c r="D405" s="43">
+      <c r="D405" s="37">
         <v>46401</v>
       </c>
     </row>
@@ -32492,7 +32471,7 @@
       <c r="C406" s="23" t="s">
         <v>1005</v>
       </c>
-      <c r="D406" s="43">
+      <c r="D406" s="37">
         <v>93433</v>
       </c>
     </row>
@@ -32503,7 +32482,7 @@
       <c r="C407" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="D407" s="43">
+      <c r="D407" s="37">
         <v>48681</v>
       </c>
     </row>
@@ -32514,7 +32493,7 @@
       <c r="C408" s="23" t="s">
         <v>1009</v>
       </c>
-      <c r="D408" s="43">
+      <c r="D408" s="37">
         <v>45458</v>
       </c>
     </row>
@@ -32525,7 +32504,7 @@
       <c r="C409" s="23" t="s">
         <v>1011</v>
       </c>
-      <c r="D409" s="43">
+      <c r="D409" s="37">
         <v>22884</v>
       </c>
     </row>
@@ -32536,7 +32515,7 @@
       <c r="C410" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="D410" s="43">
+      <c r="D410" s="37">
         <v>45096</v>
       </c>
     </row>
@@ -32547,7 +32526,7 @@
       <c r="C411" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="D411" s="43">
+      <c r="D411" s="37">
         <v>41997</v>
       </c>
     </row>
@@ -32558,7 +32537,7 @@
       <c r="C412" s="23" t="s">
         <v>1017</v>
       </c>
-      <c r="D412" s="43">
+      <c r="D412" s="37">
         <v>44265</v>
       </c>
     </row>
@@ -32569,7 +32548,7 @@
       <c r="C413" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="D413" s="43">
+      <c r="D413" s="37">
         <v>14730</v>
       </c>
     </row>
@@ -32580,7 +32559,7 @@
       <c r="C414" s="23" t="s">
         <v>1021</v>
       </c>
-      <c r="D414" s="43">
+      <c r="D414" s="37">
         <v>18301</v>
       </c>
     </row>
@@ -32591,7 +32570,7 @@
       <c r="C415" s="23" t="s">
         <v>1023</v>
       </c>
-      <c r="D415" s="43">
+      <c r="D415" s="37">
         <v>35926</v>
       </c>
     </row>
@@ -32602,7 +32581,7 @@
       <c r="C416" s="23" t="s">
         <v>1025</v>
       </c>
-      <c r="D416" s="43">
+      <c r="D416" s="37">
         <v>81758</v>
       </c>
     </row>
@@ -32613,7 +32592,7 @@
       <c r="C417" s="23" t="s">
         <v>1027</v>
       </c>
-      <c r="D417" s="43">
+      <c r="D417" s="37">
         <v>258628</v>
       </c>
     </row>
@@ -32624,7 +32603,7 @@
       <c r="C418" s="23" t="s">
         <v>1029</v>
       </c>
-      <c r="D418" s="43">
+      <c r="D418" s="37">
         <v>336211</v>
       </c>
     </row>
@@ -32635,7 +32614,7 @@
       <c r="C419" s="23" t="s">
         <v>1031</v>
       </c>
-      <c r="D419" s="43">
+      <c r="D419" s="37">
         <v>303694</v>
       </c>
     </row>
@@ -32646,7 +32625,7 @@
       <c r="C420" s="23" t="s">
         <v>1033</v>
       </c>
-      <c r="D420" s="43">
+      <c r="D420" s="37">
         <v>98573</v>
       </c>
     </row>
@@ -32657,7 +32636,7 @@
       <c r="C421" s="23" t="s">
         <v>1035</v>
       </c>
-      <c r="D421" s="43">
+      <c r="D421" s="37">
         <v>120747</v>
       </c>
     </row>
@@ -32668,7 +32647,7 @@
       <c r="C422" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="D422" s="43">
+      <c r="D422" s="37">
         <v>22166</v>
       </c>
     </row>
@@ -32679,7 +32658,7 @@
       <c r="C423" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="D423" s="43">
+      <c r="D423" s="37">
         <v>37604</v>
       </c>
     </row>
@@ -32690,7 +32669,7 @@
       <c r="C424" s="23" t="s">
         <v>1041</v>
       </c>
-      <c r="D424" s="43">
+      <c r="D424" s="37">
         <v>22329</v>
       </c>
     </row>
@@ -32701,7 +32680,7 @@
       <c r="C425" s="23" t="s">
         <v>1043</v>
       </c>
-      <c r="D425" s="43">
+      <c r="D425" s="37">
         <v>80111</v>
       </c>
     </row>
@@ -32712,7 +32691,7 @@
       <c r="C426" s="23" t="s">
         <v>1045</v>
       </c>
-      <c r="D426" s="43">
+      <c r="D426" s="37">
         <v>20088</v>
       </c>
     </row>
@@ -32723,7 +32702,7 @@
       <c r="C427" s="23" t="s">
         <v>1047</v>
       </c>
-      <c r="D427" s="43">
+      <c r="D427" s="37">
         <v>28962</v>
       </c>
     </row>
@@ -32734,7 +32713,7 @@
       <c r="C428" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="D428" s="43">
+      <c r="D428" s="37">
         <v>62899</v>
       </c>
     </row>
@@ -32745,7 +32724,7 @@
       <c r="C429" s="23" t="s">
         <v>1051</v>
       </c>
-      <c r="D429" s="43">
+      <c r="D429" s="37">
         <v>93020</v>
       </c>
     </row>
@@ -32756,7 +32735,7 @@
       <c r="C430" s="23" t="s">
         <v>1053</v>
       </c>
-      <c r="D430" s="43">
+      <c r="D430" s="37">
         <v>57520</v>
       </c>
     </row>
@@ -32767,7 +32746,7 @@
       <c r="C431" s="23" t="s">
         <v>1055</v>
       </c>
-      <c r="D431" s="43">
+      <c r="D431" s="37">
         <v>75682</v>
       </c>
     </row>
@@ -32778,7 +32757,7 @@
       <c r="C432" s="23" t="s">
         <v>1057</v>
       </c>
-      <c r="D432" s="43">
+      <c r="D432" s="37">
         <v>21314</v>
       </c>
     </row>
@@ -32789,7 +32768,7 @@
       <c r="C433" s="23" t="s">
         <v>1059</v>
       </c>
-      <c r="D433" s="43">
+      <c r="D433" s="37">
         <v>613306</v>
       </c>
     </row>
@@ -32800,7 +32779,7 @@
       <c r="C434" s="23" t="s">
         <v>1061</v>
       </c>
-      <c r="D434" s="43">
+      <c r="D434" s="37">
         <v>390322</v>
       </c>
     </row>
@@ -32811,7 +32790,7 @@
       <c r="C435" s="23" t="s">
         <v>1063</v>
       </c>
-      <c r="D435" s="43">
+      <c r="D435" s="37">
         <v>62768</v>
       </c>
     </row>
@@ -32822,7 +32801,7 @@
       <c r="C436" s="23" t="s">
         <v>1065</v>
       </c>
-      <c r="D436" s="43">
+      <c r="D436" s="37">
         <v>13843</v>
       </c>
     </row>
@@ -32833,7 +32812,7 @@
       <c r="C437" s="23" t="s">
         <v>1067</v>
       </c>
-      <c r="D437" s="43">
+      <c r="D437" s="37">
         <v>17451</v>
       </c>
     </row>
@@ -32844,7 +32823,7 @@
       <c r="C438" s="23" t="s">
         <v>1069</v>
       </c>
-      <c r="D438" s="43">
+      <c r="D438" s="37">
         <v>974593</v>
       </c>
     </row>
@@ -32855,7 +32834,7 @@
       <c r="C439" s="23" t="s">
         <v>1071</v>
       </c>
-      <c r="D439" s="43">
+      <c r="D439" s="37">
         <v>286138</v>
       </c>
     </row>
@@ -32866,7 +32845,7 @@
       <c r="C440" s="23" t="s">
         <v>1073</v>
       </c>
-      <c r="D440" s="43">
+      <c r="D440" s="37">
         <v>879668</v>
       </c>
     </row>
@@ -32877,7 +32856,7 @@
       <c r="C441" s="23" t="s">
         <v>1075</v>
       </c>
-      <c r="D441" s="43">
+      <c r="D441" s="37">
         <v>16399</v>
       </c>
     </row>
@@ -32888,7 +32867,7 @@
       <c r="C442" s="23" t="s">
         <v>1077</v>
       </c>
-      <c r="D442" s="43">
+      <c r="D442" s="37">
         <v>62898</v>
       </c>
     </row>
@@ -32899,23 +32878,19 @@
       <c r="C443" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="D443" s="43">
+      <c r="D443" s="37">
         <v>248131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{350EB6D2-4E8A-4EFE-B402-EAABE0D875B3}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{185AD9A7-61B3-4DBB-B2E3-B1EFFA210EFB}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{DEE603B4-C494-4347-8CB7-5628B8CB2FE3}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{37EE3DDF-59F4-43F9-8CC8-61251017202E}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{534BDB9B-C1C7-49A2-B8A1-8E88D93758AF}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{D06A9F29-8548-4290-B830-A63F97176907}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{A6E0F0FF-456B-4A3E-B4CA-DD6FA6969123}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{6D4EC93B-121F-4193-9B7F-981BA4CCA9C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
-  <ignoredErrors>
-    <ignoredError sqref="D4:E5" numberStoredAsText="1"/>
-    <ignoredError sqref="P7" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -32926,7 +32901,9 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32948,10 +32925,10 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="51" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -32975,25 +32952,25 @@
       <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="51" t="s">
         <v>178</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="50" t="s">
         <v>1190</v>
       </c>
-      <c r="P1" s="84" t="s">
+      <c r="P1" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="50" t="s">
         <v>1192</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="51" t="s">
         <v>1193</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -33017,13 +32994,13 @@
       <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="50" t="s">
         <v>1194</v>
       </c>
-      <c r="AA1" s="87" t="s">
+      <c r="AA1" s="54" t="s">
         <v>1195</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AB1" s="51" t="s">
         <v>1196</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -33081,11 +33058,11 @@
         <f>'Filtered OECD Data'!B38*1000</f>
         <v>2253000</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="52">
         <f>'Filtered OECD Data'!C38*1000*('U.S. Data for ISIC Splits'!D6/SUM('U.S. Data for ISIC Splits'!$D6:$E6))</f>
         <v>68011.510791366905</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="53">
         <f>'Filtered OECD Data'!C38*1000*('U.S. Data for ISIC Splits'!E6/SUM('U.S. Data for ISIC Splits'!$D6:$E6))</f>
         <v>194588.48920863308</v>
       </c>
@@ -33117,11 +33094,11 @@
         <f>'Filtered OECD Data'!J38*1000</f>
         <v>111000</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="52">
         <f>'Filtered OECD Data'!K38*1000*('U.S. Data for ISIC Splits'!G6/SUM('U.S. Data for ISIC Splits'!$G6:$H6))</f>
         <v>534161.65828529373</v>
       </c>
-      <c r="M2" s="86">
+      <c r="M2" s="53">
         <f>'Filtered OECD Data'!K38*1000*('U.S. Data for ISIC Splits'!H6/SUM('U.S. Data for ISIC Splits'!$G6:$H6))</f>
         <v>285838.34171470627</v>
       </c>
@@ -33129,19 +33106,19 @@
         <f>'Filtered OECD Data'!L38*1000</f>
         <v>690000</v>
       </c>
-      <c r="O2" s="85">
+      <c r="O2" s="52">
         <f>'Filtered OECD Data'!M38*1000*('U.S. Data for ISIC Splits'!J6/SUM('U.S. Data for ISIC Splits'!J6:K6))</f>
         <v>95335.475896168107</v>
       </c>
-      <c r="P2" s="86">
+      <c r="P2" s="53">
         <f>'Filtered OECD Data'!M38*1000*('U.S. Data for ISIC Splits'!K6/SUM('U.S. Data for ISIC Splits'!J6:K6))</f>
         <v>316664.52410383185</v>
       </c>
-      <c r="Q2" s="85">
+      <c r="Q2" s="52">
         <f>'Filtered OECD Data'!N38*1000*('U.S. Data for ISIC Splits'!M6/SUM('U.S. Data for ISIC Splits'!M6:N6))</f>
         <v>211157.18295483541</v>
       </c>
-      <c r="R2" s="86">
+      <c r="R2" s="53">
         <f>'Filtered OECD Data'!N38*1000*('U.S. Data for ISIC Splits'!N6/SUM('U.S. Data for ISIC Splits'!M6:N6))</f>
         <v>183842.81704516459</v>
       </c>
@@ -33173,15 +33150,15 @@
         <f>'Filtered OECD Data'!U38*1000</f>
         <v>1355500</v>
       </c>
-      <c r="Z2" s="85">
+      <c r="Z2" s="52">
         <f>'Filtered OECD Data'!V38*1000*('U.S. Data for ISIC Splits'!P6/SUM('U.S. Data for ISIC Splits'!P6:R6))</f>
         <v>682929.51541850215</v>
       </c>
-      <c r="AA2" s="88">
+      <c r="AA2" s="55">
         <f>'Filtered OECD Data'!V38*1000*('U.S. Data for ISIC Splits'!Q6/SUM('U.S. Data for ISIC Splits'!P6:R6))</f>
         <v>205651.98237885462</v>
       </c>
-      <c r="AB2" s="86">
+      <c r="AB2" s="53">
         <f>'Filtered OECD Data'!V38*1000*('U.S. Data for ISIC Splits'!R6/SUM('U.S. Data for ISIC Splits'!P6:R6))</f>
         <v>86418.502202643169</v>
       </c>
